--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_2_22.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_2_22.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1335968.143852646</v>
+        <v>1332494.173824346</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189902.953956421</v>
+        <v>189902.9539564199</v>
       </c>
     </row>
     <row r="8">
@@ -662,7 +662,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>316.8102175360602</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -671,10 +671,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -713,10 +713,10 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>40.32232414915258</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -725,7 +725,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.4222199825084</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -832,13 +832,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>99.34508049624269</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,19 +859,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>83.59830597394826</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -896,7 +896,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>104.5113366705979</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -905,16 +905,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,25 +941,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>7.087384186827607</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1099,25 +1099,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>83.59830597394826</v>
+        <v>155.2114886365809</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1136,16 +1136,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>323.9918595228954</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>26.94389492651078</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1193,7 +1193,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>33.2098875339526</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1303,16 +1303,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>128.4678304511573</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,13 +1333,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1367,13 +1367,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1382,13 +1382,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>296.7607853996625</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1415,28 +1415,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>22.31124795984768</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1467,7 +1467,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I12" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S12" t="n">
         <v>156.5912426325231</v>
@@ -1528,25 +1528,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>9.220846587376196</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>48.9140155965814</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1588,7 +1588,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1607,19 +1607,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>22.02087812852558</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>340.0237825764901</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1664,7 +1664,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1704,7 +1704,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I15" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S15" t="n">
         <v>156.5912426325231</v>
@@ -1771,19 +1771,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>62.56386682245552</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1822,16 +1822,16 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>196.7218456862865</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1847,7 +1847,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>284.56151600587</v>
+        <v>323.9918595228954</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1889,7 +1889,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -1907,7 +1907,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1941,7 +1941,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I18" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S18" t="n">
         <v>156.5912426325231</v>
@@ -2050,22 +2050,22 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>168.7756050755993</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>155.2114886365809</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2078,22 +2078,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>242.2866730943828</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>413.784170020795</v>
+        <v>269.5134569480836</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2132,22 +2132,22 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2236,19 +2236,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>59.72683757586846</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2293,19 +2293,19 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>162.3364906735232</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2318,7 +2318,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>69.0708624534348</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -2330,13 +2330,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>413.784170020795</v>
+        <v>323.9918595228954</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2363,7 +2363,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -2527,19 +2527,19 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>155.4526127311941</v>
       </c>
       <c r="U25" t="n">
-        <v>128.7835007017899</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2558,10 +2558,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2570,7 +2570,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>302.2028583029323</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2600,13 +2600,13 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>15.11714581632392</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -2615,10 +2615,10 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2719,19 +2719,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2764,19 +2764,19 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>8.777525990011616</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>208.9978294690248</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2792,7 +2792,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>280.1033070984082</v>
+        <v>301.0683539834538</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2858,7 +2858,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -3001,13 +3001,13 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>94.63926978364034</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>94.63926978363978</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3029,7 +3029,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3041,7 +3041,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>363.6853032774457</v>
+        <v>392.2167866975183</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3074,7 +3074,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -3086,13 +3086,13 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3126,7 +3126,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I33" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S33" t="n">
         <v>156.5912426325231</v>
@@ -3187,22 +3187,22 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>28.1011571445228</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3241,13 +3241,13 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>128.7835007017901</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3263,10 +3263,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>339.039918580681</v>
+        <v>313.5961800444755</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3311,7 +3311,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -3326,10 +3326,10 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3475,22 +3475,22 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>128.7835007017902</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>223.1498336210771</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3503,19 +3503,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>413.784170020795</v>
+        <v>351.2391879744742</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3548,7 +3548,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -3563,10 +3563,10 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>236.0502377560816</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3661,10 +3661,10 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3673,13 +3673,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>60.44533761123545</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3718,13 +3718,13 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>128.7835007017902</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3740,7 +3740,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -3752,7 +3752,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>361.5124928237674</v>
+        <v>269.5134569480836</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3785,7 +3785,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -3797,7 +3797,7 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>155.211488636581</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3952,7 +3952,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>162.3364906735232</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3961,10 +3961,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3977,22 +3977,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>307.0340902489564</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>163.9427735553733</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4022,7 +4022,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -4031,19 +4031,19 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4135,7 +4135,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4180,25 +4180,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>128.4970238253393</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>155.2114886365809</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1915.885988017522</v>
+        <v>1208.982837814967</v>
       </c>
       <c r="C2" t="n">
-        <v>1915.885988017522</v>
+        <v>1208.982837814967</v>
       </c>
       <c r="D2" t="n">
-        <v>1595.875667274027</v>
+        <v>850.7171392082162</v>
       </c>
       <c r="E2" t="n">
-        <v>1210.087414675782</v>
+        <v>464.928886609972</v>
       </c>
       <c r="F2" t="n">
-        <v>799.1015098861748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G2" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4346,34 +4346,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U2" t="n">
-        <v>2642.120401548716</v>
+        <v>2656.419470665543</v>
       </c>
       <c r="V2" t="n">
-        <v>2642.120401548716</v>
+        <v>2325.356583321972</v>
       </c>
       <c r="W2" t="n">
-        <v>2289.351746278602</v>
+        <v>1972.587928051858</v>
       </c>
       <c r="X2" t="n">
-        <v>1915.885988017522</v>
+        <v>1599.122169790778</v>
       </c>
       <c r="Y2" t="n">
-        <v>1915.885988017522</v>
+        <v>1208.982837814967</v>
       </c>
     </row>
     <row r="3">
@@ -4383,37 +4383,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170834</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359564</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692497</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961347</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673426</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.2060027641992</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598711</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
         <v>1194.968834417902</v>
@@ -4428,31 +4428,31 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036446</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036446</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036446</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036446</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036446</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036446</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036446</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036446</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R4" t="n">
-        <v>579.9823256406185</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S4" t="n">
-        <v>365.6939024587812</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="T4" t="n">
-        <v>138.3857151273829</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="U4" t="n">
-        <v>53.94298182036446</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="V4" t="n">
-        <v>53.94298182036446</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="W4" t="n">
-        <v>53.94298182036446</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036446</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036446</v>
+        <v>336.2769833124028</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>159.5099885583422</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="C5" t="n">
-        <v>53.94298182036445</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="D5" t="n">
-        <v>53.94298182036445</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="E5" t="n">
-        <v>53.94298182036445</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F5" t="n">
-        <v>53.94298182036445</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2689.990117092134</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2689.990117092134</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2471.355450064197</v>
       </c>
       <c r="U5" t="n">
-        <v>1993.54646147304</v>
+        <v>2471.355450064197</v>
       </c>
       <c r="V5" t="n">
-        <v>1662.48357412947</v>
+        <v>2140.292562720626</v>
       </c>
       <c r="W5" t="n">
-        <v>1309.714918859356</v>
+        <v>2140.292562720626</v>
       </c>
       <c r="X5" t="n">
-        <v>936.2491605982757</v>
+        <v>2140.292562720626</v>
       </c>
       <c r="Y5" t="n">
-        <v>546.109828622464</v>
+        <v>1750.153230744814</v>
       </c>
     </row>
     <row r="6">
@@ -4653,22 +4653,22 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
         <v>2488.762748073963</v>
@@ -4729,40 +4729,40 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>365.6939024587812</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>138.3857151273829</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>53.94298182036445</v>
+        <v>571.3497027553424</v>
       </c>
       <c r="V7" t="n">
-        <v>53.94298182036445</v>
+        <v>571.3497027553424</v>
       </c>
       <c r="W7" t="n">
-        <v>53.94298182036445</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X7" t="n">
         <v>53.94298182036445</v>
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1546.944160717209</v>
+        <v>1166.959449965771</v>
       </c>
       <c r="C8" t="n">
-        <v>1177.981643776797</v>
+        <v>797.9969330253591</v>
       </c>
       <c r="D8" t="n">
-        <v>1177.981643776797</v>
+        <v>439.7312344186087</v>
       </c>
       <c r="E8" t="n">
-        <v>792.1933911785532</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F8" t="n">
-        <v>381.2074863889456</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G8" t="n">
         <v>53.94298182036445</v>
@@ -4802,19 +4802,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533138</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733123</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224072</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2669.933035536898</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2669.933035536898</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2669.933035536898</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>2669.933035536898</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018222</v>
+        <v>2669.933035536898</v>
       </c>
       <c r="W8" t="n">
-        <v>2697.149091018222</v>
+        <v>2317.164380266784</v>
       </c>
       <c r="X8" t="n">
-        <v>2323.683332757143</v>
+        <v>1943.698622005704</v>
       </c>
       <c r="Y8" t="n">
-        <v>1933.544000781331</v>
+        <v>1553.559290029893</v>
       </c>
     </row>
     <row r="9">
@@ -4881,25 +4881,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>365.6939024587812</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="C10" t="n">
-        <v>365.6939024587812</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="D10" t="n">
-        <v>365.6939024587812</v>
+        <v>517.0200655508536</v>
       </c>
       <c r="E10" t="n">
-        <v>365.6939024587812</v>
+        <v>517.0200655508536</v>
       </c>
       <c r="F10" t="n">
-        <v>365.6939024587812</v>
+        <v>517.0200655508536</v>
       </c>
       <c r="G10" t="n">
-        <v>365.6939024587812</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="H10" t="n">
-        <v>235.9284171545818</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4966,46 +4966,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>579.9823256406185</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S10" t="n">
-        <v>365.6939024587812</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="T10" t="n">
-        <v>365.6939024587812</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="U10" t="n">
-        <v>365.6939024587812</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="V10" t="n">
-        <v>365.6939024587812</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="W10" t="n">
-        <v>365.6939024587812</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="X10" t="n">
-        <v>365.6939024587812</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="Y10" t="n">
-        <v>365.6939024587812</v>
+        <v>550.5654064942401</v>
       </c>
     </row>
     <row r="11">
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1491.915471247702</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="C11" t="n">
-        <v>1122.952954307291</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="D11" t="n">
-        <v>764.6872557005402</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="E11" t="n">
-        <v>764.6872557005402</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F11" t="n">
-        <v>353.7013509109326</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G11" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H11" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I11" t="n">
         <v>53.94298182036445</v>
@@ -5042,16 +5042,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K11" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L11" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M11" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N11" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O11" t="n">
         <v>2238.843319642689</v>
@@ -5063,28 +5063,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R11" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S11" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T11" t="n">
-        <v>2642.120401548716</v>
+        <v>2674.612476917366</v>
       </c>
       <c r="U11" t="n">
-        <v>2642.120401548716</v>
+        <v>2420.850691555458</v>
       </c>
       <c r="V11" t="n">
-        <v>2642.120401548716</v>
+        <v>2089.787804211887</v>
       </c>
       <c r="W11" t="n">
-        <v>2642.120401548716</v>
+        <v>1737.019148941773</v>
       </c>
       <c r="X11" t="n">
-        <v>2268.654643287636</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="Y11" t="n">
-        <v>1878.515311311824</v>
+        <v>1363.553390680693</v>
       </c>
     </row>
     <row r="12">
@@ -5127,10 +5127,10 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M12" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N12" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O12" t="n">
         <v>2188.831293537797</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>63.2569682722596</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C13" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="D13" t="n">
-        <v>53.94298182036445</v>
+        <v>578.0123447940985</v>
       </c>
       <c r="E13" t="n">
-        <v>53.94298182036445</v>
+        <v>430.0992512117053</v>
       </c>
       <c r="F13" t="n">
-        <v>53.94298182036445</v>
+        <v>430.0992512117053</v>
       </c>
       <c r="G13" t="n">
-        <v>53.94298182036445</v>
+        <v>261.0994509500377</v>
       </c>
       <c r="H13" t="n">
-        <v>53.94298182036445</v>
+        <v>103.3510783825679</v>
       </c>
       <c r="I13" t="n">
         <v>53.94298182036445</v>
@@ -5203,46 +5203,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L13" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M13" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N13" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O13" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P13" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q13" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R13" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S13" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T13" t="n">
-        <v>352.6741383092202</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U13" t="n">
-        <v>352.6741383092202</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V13" t="n">
-        <v>352.6741383092202</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W13" t="n">
-        <v>63.2569682722596</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X13" t="n">
-        <v>63.2569682722596</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y13" t="n">
-        <v>63.2569682722596</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1194.175505447095</v>
+        <v>863.1126181035243</v>
       </c>
       <c r="C14" t="n">
-        <v>1194.175505447095</v>
+        <v>494.1501011631125</v>
       </c>
       <c r="D14" t="n">
-        <v>1194.175505447095</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="E14" t="n">
-        <v>808.3872528488509</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="F14" t="n">
-        <v>397.4013480592434</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G14" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H14" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I14" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J14" t="n">
         <v>169.7108380533142</v>
       </c>
       <c r="K14" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L14" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M14" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N14" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O14" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P14" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q14" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R14" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S14" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T14" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U14" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V14" t="n">
-        <v>2697.149091018223</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W14" t="n">
-        <v>2344.380435748109</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="X14" t="n">
-        <v>1970.914677487029</v>
+        <v>1639.851790143458</v>
       </c>
       <c r="Y14" t="n">
-        <v>1580.775345511217</v>
+        <v>1249.712458167646</v>
       </c>
     </row>
     <row r="15">
@@ -5352,7 +5352,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I15" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J15" t="n">
         <v>129.2001442204943</v>
@@ -5361,10 +5361,10 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L15" t="n">
-        <v>670.8219208598711</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M15" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N15" t="n">
         <v>1748.695370517453</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>53.94298182036446</v>
+        <v>664.9331591332468</v>
       </c>
       <c r="C16" t="n">
-        <v>53.94298182036446</v>
+        <v>664.9331591332468</v>
       </c>
       <c r="D16" t="n">
-        <v>53.94298182036446</v>
+        <v>664.9331591332468</v>
       </c>
       <c r="E16" t="n">
-        <v>53.94298182036446</v>
+        <v>517.0200655508537</v>
       </c>
       <c r="F16" t="n">
-        <v>53.94298182036446</v>
+        <v>517.0200655508537</v>
       </c>
       <c r="G16" t="n">
-        <v>53.94298182036446</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="H16" t="n">
-        <v>53.94298182036446</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I16" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J16" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K16" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L16" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M16" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N16" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O16" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P16" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q16" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R16" t="n">
-        <v>728.1289842064344</v>
+        <v>664.9331591332468</v>
       </c>
       <c r="S16" t="n">
-        <v>728.1289842064344</v>
+        <v>664.9331591332468</v>
       </c>
       <c r="T16" t="n">
-        <v>728.1289842064344</v>
+        <v>664.9331591332468</v>
       </c>
       <c r="U16" t="n">
-        <v>728.1289842064344</v>
+        <v>664.9331591332468</v>
       </c>
       <c r="V16" t="n">
-        <v>473.4444960005476</v>
+        <v>664.9331591332468</v>
       </c>
       <c r="W16" t="n">
-        <v>473.4444960005476</v>
+        <v>664.9331591332468</v>
       </c>
       <c r="X16" t="n">
-        <v>274.7355609638946</v>
+        <v>664.9331591332468</v>
       </c>
       <c r="Y16" t="n">
-        <v>53.94298182036446</v>
+        <v>664.9331591332468</v>
       </c>
     </row>
     <row r="17">
@@ -5489,37 +5489,37 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1865.381229508783</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="C17" t="n">
-        <v>1496.418712568371</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="D17" t="n">
-        <v>1138.15301396162</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="E17" t="n">
-        <v>752.3647613633761</v>
+        <v>792.1933911785532</v>
       </c>
       <c r="F17" t="n">
-        <v>341.3788565737686</v>
+        <v>381.2074863889456</v>
       </c>
       <c r="G17" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H17" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I17" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J17" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K17" t="n">
-        <v>463.9616490733128</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L17" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M17" t="n">
         <v>1362.238747280443</v>
@@ -5531,34 +5531,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P17" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q17" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R17" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S17" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T17" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U17" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V17" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W17" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X17" t="n">
-        <v>2642.120401548716</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y17" t="n">
-        <v>2251.981069572904</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="18">
@@ -5589,7 +5589,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I18" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J18" t="n">
         <v>129.2001442204943</v>
@@ -5604,7 +5604,7 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N18" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O18" t="n">
         <v>2188.831293537797</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C19" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D19" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E19" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F19" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G19" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H19" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I19" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J19" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K19" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L19" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M19" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N19" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O19" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P19" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q19" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R19" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S19" t="n">
-        <v>513.8405610245972</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T19" t="n">
-        <v>343.3601518573251</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U19" t="n">
-        <v>343.3601518573251</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V19" t="n">
-        <v>343.3601518573251</v>
+        <v>571.3497027553424</v>
       </c>
       <c r="W19" t="n">
-        <v>53.94298182036446</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X19" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y19" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="20">
@@ -5726,19 +5726,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1485.892406545185</v>
+        <v>1491.915471247702</v>
       </c>
       <c r="C20" t="n">
-        <v>1241.158393318536</v>
+        <v>1122.952954307291</v>
       </c>
       <c r="D20" t="n">
-        <v>882.8926947117852</v>
+        <v>1122.952954307291</v>
       </c>
       <c r="E20" t="n">
-        <v>882.8926947117852</v>
+        <v>737.1647017090463</v>
       </c>
       <c r="F20" t="n">
-        <v>471.9067899221776</v>
+        <v>326.1787969194388</v>
       </c>
       <c r="G20" t="n">
         <v>53.94298182036445</v>
@@ -5750,13 +5750,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J20" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K20" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733128</v>
       </c>
       <c r="L20" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M20" t="n">
         <v>1362.238747280443</v>
@@ -5780,22 +5780,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T20" t="n">
-        <v>2423.485734520778</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U20" t="n">
-        <v>2169.72394915887</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V20" t="n">
-        <v>1838.661061815299</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W20" t="n">
-        <v>1485.892406545185</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X20" t="n">
-        <v>1485.892406545185</v>
+        <v>2268.654643287636</v>
       </c>
       <c r="Y20" t="n">
-        <v>1485.892406545185</v>
+        <v>1878.515311311824</v>
       </c>
     </row>
     <row r="21">
@@ -5884,16 +5884,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>667.7988452409105</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C22" t="n">
-        <v>498.8626623130036</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D22" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E22" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F22" t="n">
         <v>53.94298182036445</v>
@@ -5941,19 +5941,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U22" t="n">
-        <v>728.1289842064342</v>
+        <v>564.1527310008552</v>
       </c>
       <c r="V22" t="n">
-        <v>728.1289842064342</v>
+        <v>564.1527310008552</v>
       </c>
       <c r="W22" t="n">
-        <v>728.1289842064342</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="X22" t="n">
-        <v>728.1289842064342</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y22" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="23">
@@ -5963,31 +5963,31 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1491.915471247702</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="C23" t="n">
-        <v>1422.14692331494</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="D23" t="n">
-        <v>1422.14692331494</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="E23" t="n">
-        <v>1036.358670716696</v>
+        <v>792.1933911785532</v>
       </c>
       <c r="F23" t="n">
-        <v>625.3727659270879</v>
+        <v>381.2074863889456</v>
       </c>
       <c r="G23" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H23" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I23" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J23" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K23" t="n">
         <v>463.9616490733126</v>
@@ -6011,28 +6011,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R23" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S23" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T23" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U23" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V23" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W23" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X23" t="n">
-        <v>2268.654643287636</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y23" t="n">
-        <v>1878.515311311824</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="24">
@@ -6081,10 +6081,10 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O24" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P24" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q24" t="n">
         <v>2697.149091018223</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K25" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L25" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M25" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N25" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O25" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P25" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q25" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R25" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S25" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T25" t="n">
-        <v>2697.149091018222</v>
+        <v>571.1061430638139</v>
       </c>
       <c r="U25" t="n">
-        <v>2567.064746875</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="V25" t="n">
-        <v>2312.380258669114</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="W25" t="n">
-        <v>2022.963088632153</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="26">
@@ -6200,40 +6200,40 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1139.146815977588</v>
+        <v>1905.140074719375</v>
       </c>
       <c r="C26" t="n">
-        <v>770.1842990371763</v>
+        <v>1536.177557778964</v>
       </c>
       <c r="D26" t="n">
-        <v>770.1842990371763</v>
+        <v>1177.911859172213</v>
       </c>
       <c r="E26" t="n">
-        <v>770.1842990371763</v>
+        <v>792.1236065739691</v>
       </c>
       <c r="F26" t="n">
-        <v>359.1983942475687</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="G26" t="n">
-        <v>359.1983942475687</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H26" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I26" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J26" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533135</v>
       </c>
       <c r="K26" t="n">
-        <v>463.9616490733126</v>
+        <v>463.961649073312</v>
       </c>
       <c r="L26" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224068</v>
       </c>
       <c r="M26" t="n">
-        <v>1362.238747280443</v>
+        <v>1362.238747280442</v>
       </c>
       <c r="N26" t="n">
         <v>1836.345445977174</v>
@@ -6248,28 +6248,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R26" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S26" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T26" t="n">
-        <v>2642.120401548716</v>
+        <v>2681.879246759309</v>
       </c>
       <c r="U26" t="n">
-        <v>2642.120401548716</v>
+        <v>2681.879246759309</v>
       </c>
       <c r="V26" t="n">
-        <v>2642.120401548716</v>
+        <v>2681.879246759309</v>
       </c>
       <c r="W26" t="n">
-        <v>2289.351746278601</v>
+        <v>2681.879246759309</v>
       </c>
       <c r="X26" t="n">
-        <v>1915.885988017521</v>
+        <v>2681.879246759309</v>
       </c>
       <c r="Y26" t="n">
-        <v>1525.74665604171</v>
+        <v>2291.739914783497</v>
       </c>
     </row>
     <row r="27">
@@ -6300,7 +6300,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I27" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J27" t="n">
         <v>129.2001442204943</v>
@@ -6315,13 +6315,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N27" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O27" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P27" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q27" t="n">
         <v>2697.149091018223</v>
@@ -6358,31 +6358,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>201.8560754027576</v>
+        <v>517.0200655508536</v>
       </c>
       <c r="C28" t="n">
-        <v>201.8560754027576</v>
+        <v>517.0200655508536</v>
       </c>
       <c r="D28" t="n">
-        <v>201.8560754027576</v>
+        <v>517.0200655508536</v>
       </c>
       <c r="E28" t="n">
-        <v>53.94298182036445</v>
+        <v>517.0200655508536</v>
       </c>
       <c r="F28" t="n">
-        <v>53.94298182036445</v>
+        <v>517.0200655508536</v>
       </c>
       <c r="G28" t="n">
-        <v>53.94298182036445</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="H28" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I28" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J28" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K28" t="n">
         <v>110.2451748866326</v>
@@ -6412,22 +6412,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T28" t="n">
-        <v>719.2627963377356</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U28" t="n">
-        <v>719.2627963377356</v>
+        <v>517.0200655508536</v>
       </c>
       <c r="V28" t="n">
-        <v>719.2627963377356</v>
+        <v>517.0200655508536</v>
       </c>
       <c r="W28" t="n">
-        <v>429.8456263007749</v>
+        <v>517.0200655508536</v>
       </c>
       <c r="X28" t="n">
-        <v>201.8560754027576</v>
+        <v>517.0200655508536</v>
       </c>
       <c r="Y28" t="n">
-        <v>201.8560754027576</v>
+        <v>517.0200655508536</v>
       </c>
     </row>
     <row r="29">
@@ -6437,37 +6437,37 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1491.915471247702</v>
+        <v>1882.054803223514</v>
       </c>
       <c r="C29" t="n">
-        <v>1491.915471247702</v>
+        <v>1513.092286283102</v>
       </c>
       <c r="D29" t="n">
-        <v>1133.649772640952</v>
+        <v>1154.826587676351</v>
       </c>
       <c r="E29" t="n">
-        <v>747.8615200427075</v>
+        <v>769.0383350781071</v>
       </c>
       <c r="F29" t="n">
-        <v>336.8756152531</v>
+        <v>358.0524302884996</v>
       </c>
       <c r="G29" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H29" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I29" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J29" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K29" t="n">
-        <v>463.9616490733128</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L29" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M29" t="n">
         <v>1362.238747280443</v>
@@ -6485,28 +6485,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R29" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S29" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="T29" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="U29" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="V29" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="W29" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="X29" t="n">
-        <v>2268.654643287636</v>
+        <v>2268.654643287635</v>
       </c>
       <c r="Y29" t="n">
-        <v>1878.515311311824</v>
+        <v>2268.654643287635</v>
       </c>
     </row>
     <row r="30">
@@ -6516,73 +6516,73 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C30" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D30" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747043</v>
       </c>
       <c r="E30" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692488</v>
       </c>
       <c r="F30" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G30" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102423999</v>
       </c>
       <c r="H30" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673417</v>
       </c>
       <c r="I30" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036376</v>
       </c>
       <c r="J30" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204936</v>
       </c>
       <c r="K30" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615921</v>
       </c>
       <c r="L30" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598704</v>
       </c>
       <c r="M30" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N30" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517452</v>
       </c>
       <c r="O30" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537796</v>
       </c>
       <c r="P30" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q30" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R30" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S30" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T30" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U30" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V30" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W30" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X30" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y30" t="n">
         <v>1156.713312237151</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632152</v>
       </c>
       <c r="C31" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632152</v>
       </c>
       <c r="D31" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632152</v>
       </c>
       <c r="E31" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632152</v>
       </c>
       <c r="F31" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632152</v>
       </c>
       <c r="G31" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632152</v>
       </c>
       <c r="H31" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632152</v>
       </c>
       <c r="I31" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632152</v>
       </c>
       <c r="J31" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632152</v>
       </c>
       <c r="K31" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.26528169842</v>
       </c>
       <c r="L31" t="n">
-        <v>237.819032447791</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M31" t="n">
-        <v>382.7169011658209</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N31" t="n">
-        <v>529.6040388502499</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O31" t="n">
-        <v>649.2617893594901</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P31" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q31" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R31" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S31" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T31" t="n">
-        <v>632.5337622027571</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U31" t="n">
-        <v>343.360151857325</v>
+        <v>2407.97548067279</v>
       </c>
       <c r="V31" t="n">
-        <v>343.360151857325</v>
+        <v>2312.380258669113</v>
       </c>
       <c r="W31" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632152</v>
       </c>
       <c r="X31" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632152</v>
       </c>
       <c r="Y31" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632152</v>
       </c>
     </row>
     <row r="32">
@@ -6674,28 +6674,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1534.318342165211</v>
+        <v>1194.175505447095</v>
       </c>
       <c r="C32" t="n">
-        <v>1165.355825224799</v>
+        <v>1194.175505447095</v>
       </c>
       <c r="D32" t="n">
-        <v>807.0901266180488</v>
+        <v>835.9098068403443</v>
       </c>
       <c r="E32" t="n">
-        <v>421.3018740198045</v>
+        <v>450.1215542421001</v>
       </c>
       <c r="F32" t="n">
-        <v>421.3018740198045</v>
+        <v>450.1215542421001</v>
       </c>
       <c r="G32" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H32" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I32" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J32" t="n">
         <v>169.7108380533141</v>
@@ -6704,7 +6704,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L32" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M32" t="n">
         <v>1362.238747280443</v>
@@ -6722,28 +6722,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R32" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S32" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T32" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U32" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V32" t="n">
-        <v>2311.057514205144</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W32" t="n">
-        <v>2311.057514205144</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="X32" t="n">
-        <v>2311.057514205144</v>
+        <v>1970.914677487028</v>
       </c>
       <c r="Y32" t="n">
-        <v>1920.918182229333</v>
+        <v>1580.775345511217</v>
       </c>
     </row>
     <row r="33">
@@ -6774,25 +6774,25 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I33" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J33" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K33" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L33" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M33" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N33" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O33" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P33" t="n">
         <v>2525.076107152626</v>
@@ -6832,31 +6832,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>53.94298182036444</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C34" t="n">
-        <v>53.94298182036444</v>
+        <v>559.1928012785273</v>
       </c>
       <c r="D34" t="n">
-        <v>53.94298182036444</v>
+        <v>409.0761618661916</v>
       </c>
       <c r="E34" t="n">
-        <v>53.94298182036444</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="F34" t="n">
-        <v>53.94298182036444</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="G34" t="n">
-        <v>53.94298182036444</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H34" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I34" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J34" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K34" t="n">
         <v>110.2451748866326</v>
@@ -6889,19 +6889,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U34" t="n">
-        <v>598.0446400632119</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V34" t="n">
-        <v>343.360151857325</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W34" t="n">
-        <v>53.94298182036444</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X34" t="n">
-        <v>53.94298182036444</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y34" t="n">
-        <v>53.94298182036444</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="35">
@@ -6911,40 +6911,40 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1920.409918978288</v>
+        <v>1525.74665604171</v>
       </c>
       <c r="C35" t="n">
-        <v>1551.447402037877</v>
+        <v>1525.74665604171</v>
       </c>
       <c r="D35" t="n">
-        <v>1193.181703431126</v>
+        <v>1167.480957434959</v>
       </c>
       <c r="E35" t="n">
-        <v>807.3934508328821</v>
+        <v>781.6927048367149</v>
       </c>
       <c r="F35" t="n">
-        <v>396.4075460432745</v>
+        <v>370.7068000471074</v>
       </c>
       <c r="G35" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H35" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I35" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J35" t="n">
-        <v>169.7108380533133</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K35" t="n">
-        <v>463.9616490733118</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L35" t="n">
-        <v>881.2824271224067</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M35" t="n">
-        <v>1362.238747280442</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N35" t="n">
         <v>1836.345445977174</v>
@@ -6959,28 +6959,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R35" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S35" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T35" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U35" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V35" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W35" t="n">
-        <v>2697.149091018222</v>
+        <v>2289.351746278601</v>
       </c>
       <c r="X35" t="n">
-        <v>2697.149091018222</v>
+        <v>1915.885988017521</v>
       </c>
       <c r="Y35" t="n">
-        <v>2307.00975904241</v>
+        <v>1525.74665604171</v>
       </c>
     </row>
     <row r="36">
@@ -7011,28 +7011,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I36" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J36" t="n">
-        <v>53.94298182036444</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K36" t="n">
-        <v>309.1903022614629</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L36" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M36" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N36" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O36" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P36" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q36" t="n">
         <v>2697.149091018223</v>
@@ -7069,31 +7069,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C37" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D37" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E37" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F37" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G37" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H37" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I37" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J37" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K37" t="n">
         <v>110.2451748866326</v>
@@ -7102,43 +7102,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M37" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N37" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O37" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P37" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q37" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R37" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S37" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T37" t="n">
-        <v>598.0446400632119</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U37" t="n">
-        <v>598.0446400632119</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V37" t="n">
-        <v>343.360151857325</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W37" t="n">
-        <v>53.94298182036444</v>
+        <v>502.7251118619119</v>
       </c>
       <c r="X37" t="n">
-        <v>53.94298182036444</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y37" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="38">
@@ -7148,43 +7148,43 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1626.94664591678</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="C38" t="n">
-        <v>1626.94664591678</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="D38" t="n">
-        <v>1268.680947310029</v>
+        <v>819.715945170047</v>
       </c>
       <c r="E38" t="n">
-        <v>882.8926947117851</v>
+        <v>819.715945170047</v>
       </c>
       <c r="F38" t="n">
-        <v>471.9067899221776</v>
+        <v>408.7300403804394</v>
       </c>
       <c r="G38" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H38" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I38" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J38" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K38" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L38" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M38" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N38" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O38" t="n">
         <v>2238.843319642689</v>
@@ -7196,28 +7196,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R38" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S38" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T38" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U38" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V38" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W38" t="n">
-        <v>2403.685817956713</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X38" t="n">
-        <v>2403.685817956713</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y38" t="n">
-        <v>2013.546485980901</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="39">
@@ -7227,19 +7227,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C39" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D39" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E39" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F39" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G39" t="n">
         <v>221.4284102424006</v>
@@ -7248,7 +7248,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I39" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J39" t="n">
         <v>129.2001442204943</v>
@@ -7260,34 +7260,34 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M39" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N39" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O39" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P39" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q39" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R39" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S39" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T39" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U39" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V39" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W39" t="n">
         <v>1572.325111207638</v>
@@ -7306,31 +7306,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>53.94298182036444</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C40" t="n">
-        <v>53.94298182036444</v>
+        <v>559.1928012785273</v>
       </c>
       <c r="D40" t="n">
-        <v>53.94298182036444</v>
+        <v>409.0761618661916</v>
       </c>
       <c r="E40" t="n">
-        <v>53.94298182036444</v>
+        <v>409.0761618661916</v>
       </c>
       <c r="F40" t="n">
-        <v>53.94298182036444</v>
+        <v>409.0761618661916</v>
       </c>
       <c r="G40" t="n">
-        <v>53.94298182036444</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="H40" t="n">
-        <v>53.94298182036444</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I40" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J40" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K40" t="n">
         <v>110.2451748866326</v>
@@ -7339,43 +7339,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M40" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N40" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O40" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P40" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q40" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R40" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S40" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T40" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U40" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V40" t="n">
-        <v>473.4444960005475</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W40" t="n">
-        <v>184.0273259635869</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X40" t="n">
-        <v>53.94298182036444</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y40" t="n">
-        <v>53.94298182036444</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="41">
@@ -7385,40 +7385,40 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1215.881273373638</v>
+        <v>1491.915471247702</v>
       </c>
       <c r="C41" t="n">
-        <v>1215.881273373638</v>
+        <v>1122.952954307291</v>
       </c>
       <c r="D41" t="n">
-        <v>1215.881273373638</v>
+        <v>1122.952954307291</v>
       </c>
       <c r="E41" t="n">
-        <v>830.0930207753936</v>
+        <v>737.1647017090463</v>
       </c>
       <c r="F41" t="n">
-        <v>419.107115985786</v>
+        <v>326.1787969194388</v>
       </c>
       <c r="G41" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H41" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I41" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J41" t="n">
-        <v>169.7108380533133</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K41" t="n">
-        <v>463.9616490733118</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L41" t="n">
-        <v>881.2824271224067</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M41" t="n">
-        <v>1362.238747280442</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N41" t="n">
         <v>1836.345445977174</v>
@@ -7433,28 +7433,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R41" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S41" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T41" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U41" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V41" t="n">
-        <v>2366.086203674651</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W41" t="n">
-        <v>2366.086203674651</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X41" t="n">
-        <v>1992.620445413571</v>
+        <v>2268.654643287636</v>
       </c>
       <c r="Y41" t="n">
-        <v>1602.48111343776</v>
+        <v>1878.515311311824</v>
       </c>
     </row>
     <row r="42">
@@ -7485,7 +7485,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I42" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J42" t="n">
         <v>129.2001442204943</v>
@@ -7500,13 +7500,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N42" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O42" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P42" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q42" t="n">
         <v>2697.149091018223</v>
@@ -7543,31 +7543,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C43" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D43" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E43" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F43" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G43" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H43" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I43" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J43" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K43" t="n">
         <v>110.2451748866326</v>
@@ -7576,43 +7576,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M43" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N43" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O43" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P43" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q43" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R43" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S43" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T43" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U43" t="n">
-        <v>728.1289842064343</v>
+        <v>564.1527310008552</v>
       </c>
       <c r="V43" t="n">
-        <v>728.1289842064343</v>
+        <v>564.1527310008552</v>
       </c>
       <c r="W43" t="n">
-        <v>438.7118141694737</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="X43" t="n">
-        <v>210.7222632714564</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y43" t="n">
-        <v>210.7222632714564</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1160.852583904132</v>
+        <v>999.4901647174274</v>
       </c>
       <c r="C44" t="n">
-        <v>1160.852583904132</v>
+        <v>630.5276477770158</v>
       </c>
       <c r="D44" t="n">
-        <v>1160.852583904132</v>
+        <v>630.5276477770158</v>
       </c>
       <c r="E44" t="n">
-        <v>775.0643313058877</v>
+        <v>630.5276477770158</v>
       </c>
       <c r="F44" t="n">
-        <v>364.0784265162801</v>
+        <v>219.5417429874082</v>
       </c>
       <c r="G44" t="n">
-        <v>53.94298182036446</v>
+        <v>219.5417429874082</v>
       </c>
       <c r="H44" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I44" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J44" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K44" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L44" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M44" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N44" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O44" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P44" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q44" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R44" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S44" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T44" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U44" t="n">
-        <v>2642.120401548716</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V44" t="n">
-        <v>2311.057514205145</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="W44" t="n">
-        <v>2311.057514205145</v>
+        <v>1759.555763042629</v>
       </c>
       <c r="X44" t="n">
-        <v>1937.591755944065</v>
+        <v>1386.090004781549</v>
       </c>
       <c r="Y44" t="n">
-        <v>1547.452423968254</v>
+        <v>1386.090004781549</v>
       </c>
     </row>
     <row r="45">
@@ -7722,28 +7722,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I45" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J45" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K45" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L45" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M45" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N45" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O45" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P45" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q45" t="n">
         <v>2697.149091018223</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>222.8791647482714</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C46" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D46" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E46" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F46" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G46" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H46" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I46" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J46" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K46" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L46" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M46" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N46" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O46" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P46" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q46" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R46" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S46" t="n">
-        <v>450.1873520796696</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T46" t="n">
-        <v>222.8791647482714</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U46" t="n">
-        <v>222.8791647482714</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V46" t="n">
-        <v>222.8791647482714</v>
+        <v>571.3497027553424</v>
       </c>
       <c r="W46" t="n">
-        <v>222.8791647482714</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X46" t="n">
-        <v>222.8791647482714</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y46" t="n">
-        <v>222.8791647482714</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
   </sheetData>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>221.0467526719081</v>
+        <v>145.029416914201</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8301,7 +8301,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516223</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747073</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8450,7 +8450,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>169.0966151720733</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
         <v>324.1454125711647</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951781</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8775,13 +8775,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516228</v>
       </c>
       <c r="N12" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
-        <v>274.4264991783519</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
@@ -8942,7 +8942,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714827</v>
+        <v>321.7987081714828</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9009,13 +9009,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>251.4045252050818</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451761</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
@@ -9252,10 +9252,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783523</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
@@ -9729,13 +9729,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783523</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>90.64146763747169</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9872,7 +9872,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720731</v>
       </c>
       <c r="K26" t="n">
         <v>324.1454125711647</v>
@@ -9963,7 +9963,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451761</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
@@ -9972,7 +9972,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>90.64146763747169</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10188,13 +10188,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050819</v>
       </c>
       <c r="M30" t="n">
         <v>465.7050637499999</v>
@@ -10209,7 +10209,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10425,7 +10425,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10437,13 +10437,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>359.9065542451761</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>275.0442842992669</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720729</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
@@ -10662,7 +10662,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10683,7 +10683,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>166.6588033951781</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10832,7 +10832,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
-        <v>437.3469244119832</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
         <v>380.8001812627454</v>
@@ -10908,7 +10908,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516223</v>
       </c>
       <c r="N39" t="n">
         <v>479.3423743435536</v>
@@ -10920,7 +10920,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>90.64146763747119</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720729</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11078,7 +11078,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599048</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11148,7 +11148,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
@@ -11157,7 +11157,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11312,7 +11312,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714828</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11373,10 +11373,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719084</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
@@ -11394,7 +11394,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>90.64146763747119</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22550,7 +22550,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>37.87282408462272</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -22559,10 +22559,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -22592,7 +22592,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -22601,10 +22601,10 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>210.9018433591367</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -22613,7 +22613,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22720,13 +22720,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>56.82580834555246</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22747,7 +22747,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -22756,10 +22756,10 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>202.6835682680295</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -22784,7 +22784,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>260.7615551004096</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -22793,16 +22793,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22829,25 +22829,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>47.3910183879841</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -22963,7 +22963,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22987,25 +22987,25 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>202.6835682680295</v>
+        <v>131.0703856053968</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -23024,16 +23024,16 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>89.79231049789962</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -23066,7 +23066,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>27.53450764830093</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -23081,7 +23081,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -23182,7 +23182,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>115.4055854842598</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -23191,16 +23191,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>27.70305839063781</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23221,13 +23221,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
@@ -23255,13 +23255,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -23270,13 +23270,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>117.0233846211325</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23303,28 +23303,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S11" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T11" t="n">
-        <v>216.4483203576578</v>
+        <v>194.1370723978101</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23416,28 +23416,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>158.0259745112516</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>134.9656217923382</v>
+        <v>86.05160619575685</v>
       </c>
       <c r="J13" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23458,16 +23458,16 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S13" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U13" t="n">
         <v>286.2818742419777</v>
@@ -23476,7 +23476,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23495,19 +23495,19 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>332.6621634921574</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>73.76038744430491</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>323.9227727643571</v>
@@ -23540,7 +23540,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S14" t="n">
         <v>174.4157128089715</v>
@@ -23552,7 +23552,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23659,22 +23659,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23695,10 +23695,10 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R16" t="n">
-        <v>146.6651919801578</v>
+        <v>84.10132515770235</v>
       </c>
       <c r="S16" t="n">
         <v>212.1455389500189</v>
@@ -23710,16 +23710,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>28.98780970275067</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23735,7 +23735,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23744,7 +23744,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>129.222654014925</v>
+        <v>89.79231049789962</v>
       </c>
       <c r="H17" t="n">
         <v>323.9227727643571</v>
@@ -23777,7 +23777,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S17" t="n">
         <v>174.4157128089715</v>
@@ -23795,7 +23795,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23908,10 +23908,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I19" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J19" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23932,28 +23932,28 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R19" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T19" t="n">
-        <v>56.25950038248496</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U19" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>96.92615468724711</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23966,22 +23966,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>122.9862186766248</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>144.2707130727114</v>
       </c>
       <c r="H20" t="n">
         <v>323.9227727643571</v>
@@ -24020,22 +24020,22 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24124,19 +24124,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>120.1051426060688</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>167.3098022590509</v>
@@ -24181,19 +24181,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2818742419777</v>
+        <v>123.9453835684545</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24206,7 +24206,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>296.2020293175727</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -24218,13 +24218,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>89.79231049789962</v>
       </c>
       <c r="H23" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24251,7 +24251,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S23" t="n">
         <v>174.4157128089715</v>
@@ -24415,19 +24415,19 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T25" t="n">
-        <v>225.0351054580843</v>
+        <v>69.58249272689014</v>
       </c>
       <c r="U25" t="n">
-        <v>157.4983735401879</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24446,10 +24446,10 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -24458,7 +24458,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H26" t="n">
-        <v>21.71991446142488</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>151.9313162448613</v>
@@ -24488,13 +24488,13 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S26" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T26" t="n">
-        <v>216.4483203576578</v>
+        <v>201.3311745413339</v>
       </c>
       <c r="U26" t="n">
         <v>251.2241675082893</v>
@@ -24503,10 +24503,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24607,19 +24607,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>45.19995918853701</v>
@@ -24652,19 +24652,19 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T28" t="n">
-        <v>216.2575794680727</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2818742419777</v>
+        <v>77.28404477295294</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24680,7 +24680,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -24692,7 +24692,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>133.6808629223868</v>
+        <v>112.7158160373412</v>
       </c>
       <c r="H29" t="n">
         <v>323.9227727643571</v>
@@ -24746,7 +24746,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24889,13 +24889,13 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T31" t="n">
-        <v>130.3958356744439</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>157.4983735401882</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24917,7 +24917,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -24929,7 +24929,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>50.09886674334933</v>
+        <v>21.56738332327672</v>
       </c>
       <c r="H32" t="n">
         <v>323.9227727643571</v>
@@ -24962,7 +24962,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S32" t="n">
         <v>174.4157128089715</v>
@@ -24974,13 +24974,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25075,28 +25075,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>118.3328055020464</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J34" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25117,7 +25117,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R34" t="n">
         <v>146.6651919801579</v>
@@ -25129,13 +25129,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U34" t="n">
-        <v>157.4983735401876</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25151,10 +25151,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -25166,7 +25166,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>74.744251440114</v>
+        <v>100.1879899763195</v>
       </c>
       <c r="H35" t="n">
         <v>323.9227727643571</v>
@@ -25199,7 +25199,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>174.4157128089715</v>
@@ -25214,10 +25214,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25333,7 +25333,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J37" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25357,28 +25357,28 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R37" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S37" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T37" t="n">
-        <v>96.25160475629406</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U37" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>63.37316471551392</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25391,19 +25391,19 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>62.54498204632074</v>
       </c>
       <c r="H38" t="n">
         <v>323.9227727643571</v>
@@ -25436,7 +25436,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S38" t="n">
         <v>174.4157128089715</v>
@@ -25451,10 +25451,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>113.1907309613314</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25549,10 +25549,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25561,16 +25561,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>167.3098022590509</v>
+        <v>106.8644646478155</v>
       </c>
       <c r="H40" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R40" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S40" t="n">
         <v>212.1455389500189</v>
@@ -25606,13 +25606,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>96.92615468724694</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25628,7 +25628,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -25640,7 +25640,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>52.2716771970276</v>
+        <v>144.2707130727114</v>
       </c>
       <c r="H41" t="n">
         <v>323.9227727643571</v>
@@ -25673,7 +25673,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>174.4157128089715</v>
@@ -25685,7 +25685,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -25783,7 +25783,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.62049154535629</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25807,7 +25807,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J43" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25831,7 +25831,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R43" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S43" t="n">
         <v>212.1455389500189</v>
@@ -25840,7 +25840,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2818742419777</v>
+        <v>123.9453835684545</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25849,10 +25849,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25865,22 +25865,22 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>106.7500797718386</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H44" t="n">
-        <v>323.9227727643571</v>
+        <v>159.9799992089838</v>
       </c>
       <c r="I44" t="n">
         <v>151.9313162448613</v>
@@ -25910,7 +25910,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S44" t="n">
         <v>174.4157128089715</v>
@@ -25919,19 +25919,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -26023,7 +26023,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26044,7 +26044,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J46" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26068,25 +26068,25 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S46" t="n">
-        <v>83.64851512467956</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U46" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>96.92615468724711</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>711682.0831084221</v>
+        <v>711682.083108422</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>711682.083108422</v>
+        <v>711682.0831084221</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>711682.0831084221</v>
+        <v>711682.083108422</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>711682.0831084221</v>
+        <v>711682.083108422</v>
       </c>
     </row>
     <row r="8">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>711682.083108422</v>
+        <v>711682.0831084221</v>
       </c>
     </row>
     <row r="15">
@@ -26320,40 +26320,40 @@
         <v>318067.8710173335</v>
       </c>
       <c r="E2" t="n">
-        <v>318067.8710173335</v>
+        <v>318067.8710173333</v>
       </c>
       <c r="F2" t="n">
         <v>318067.8710173334</v>
       </c>
       <c r="G2" t="n">
+        <v>318067.8710173334</v>
+      </c>
+      <c r="H2" t="n">
+        <v>318067.8710173334</v>
+      </c>
+      <c r="I2" t="n">
         <v>318067.8710173335</v>
-      </c>
-      <c r="H2" t="n">
-        <v>318067.8710173333</v>
-      </c>
-      <c r="I2" t="n">
-        <v>318067.8710173334</v>
       </c>
       <c r="J2" t="n">
         <v>318067.8710173335</v>
       </c>
       <c r="K2" t="n">
+        <v>318067.8710173334</v>
+      </c>
+      <c r="L2" t="n">
         <v>318067.8710173335</v>
-      </c>
-      <c r="L2" t="n">
-        <v>318067.8710173333</v>
       </c>
       <c r="M2" t="n">
         <v>318067.8710173334</v>
       </c>
       <c r="N2" t="n">
-        <v>318067.8710173332</v>
+        <v>318067.8710173335</v>
       </c>
       <c r="O2" t="n">
         <v>318067.8710173335</v>
       </c>
       <c r="P2" t="n">
-        <v>318067.8710173334</v>
+        <v>318067.8710173335</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>17813.71306019599</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="C4" t="n">
-        <v>17813.71306019599</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="D4" t="n">
-        <v>17813.71306019599</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="E4" t="n">
-        <v>17813.71306019599</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="F4" t="n">
-        <v>17813.71306019599</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="G4" t="n">
-        <v>17813.71306019599</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="H4" t="n">
-        <v>17813.71306019599</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="I4" t="n">
-        <v>17813.71306019599</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="J4" t="n">
-        <v>17813.71306019599</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="K4" t="n">
-        <v>17813.71306019599</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="L4" t="n">
-        <v>17813.71306019599</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="M4" t="n">
-        <v>17813.71306019599</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="N4" t="n">
-        <v>17813.71306019599</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="O4" t="n">
-        <v>17813.71306019599</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="P4" t="n">
-        <v>17813.71306019599</v>
+        <v>18228.92756966326</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
@@ -26479,10 +26479,10 @@
         <v>49231.47806340946</v>
       </c>
       <c r="F5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="G5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="H5" t="n">
         <v>49231.47806340946</v>
@@ -26509,7 +26509,7 @@
         <v>49231.47806340946</v>
       </c>
       <c r="P5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-372572.7993208165</v>
+        <v>-372988.0138302836</v>
       </c>
       <c r="C6" t="n">
-        <v>217395.0798937281</v>
+        <v>216979.8653842608</v>
       </c>
       <c r="D6" t="n">
-        <v>217395.0798937281</v>
+        <v>216979.8653842608</v>
       </c>
       <c r="E6" t="n">
-        <v>251022.6798937281</v>
+        <v>250607.4653842606</v>
       </c>
       <c r="F6" t="n">
-        <v>251022.679893728</v>
+        <v>250607.4653842607</v>
       </c>
       <c r="G6" t="n">
-        <v>251022.679893728</v>
+        <v>250607.4653842607</v>
       </c>
       <c r="H6" t="n">
-        <v>251022.6798937279</v>
+        <v>250607.4653842607</v>
       </c>
       <c r="I6" t="n">
-        <v>251022.679893728</v>
+        <v>250607.4653842608</v>
       </c>
       <c r="J6" t="n">
-        <v>74599.460701135</v>
+        <v>74184.24619166783</v>
       </c>
       <c r="K6" t="n">
-        <v>251022.6798937281</v>
+        <v>250607.4653842606</v>
       </c>
       <c r="L6" t="n">
-        <v>251022.6798937279</v>
+        <v>250607.4653842608</v>
       </c>
       <c r="M6" t="n">
-        <v>251022.679893728</v>
+        <v>250607.4653842607</v>
       </c>
       <c r="N6" t="n">
-        <v>251022.6798937278</v>
+        <v>250607.4653842608</v>
       </c>
       <c r="O6" t="n">
-        <v>251022.6798937281</v>
+        <v>250607.4653842608</v>
       </c>
       <c r="P6" t="n">
-        <v>251022.679893728</v>
+        <v>250607.4653842608</v>
       </c>
     </row>
   </sheetData>
@@ -26735,22 +26735,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="F3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="G3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="H3" t="n">
         <v>377.7436642170866</v>
@@ -26768,16 +26768,16 @@
         <v>377.7436642170866</v>
       </c>
       <c r="M3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="N3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="O3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="P3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
     </row>
     <row r="4">
@@ -26787,7 +26787,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
@@ -26799,10 +26799,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="F4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="G4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="H4" t="n">
         <v>674.2872727545556</v>
@@ -26811,25 +26811,25 @@
         <v>674.2872727545556</v>
       </c>
       <c r="J4" t="n">
+        <v>674.2872727545555</v>
+      </c>
+      <c r="K4" t="n">
+        <v>674.2872727545555</v>
+      </c>
+      <c r="L4" t="n">
         <v>674.2872727545556</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>674.2872727545556</v>
       </c>
-      <c r="L4" t="n">
-        <v>674.2872727545555</v>
-      </c>
-      <c r="M4" t="n">
-        <v>674.2872727545555</v>
-      </c>
       <c r="N4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="O4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="P4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
     </row>
   </sheetData>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31519,19 +31519,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31546,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31671,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31695,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31750,46 +31750,46 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H11" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I11" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J11" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K11" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L11" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M11" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N11" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O11" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P11" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q11" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R11" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S11" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T11" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U11" t="n">
         <v>0.1214853995472036</v>
@@ -31829,16 +31829,16 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H12" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I12" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J12" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K12" t="n">
         <v>131.2017781649102</v>
@@ -31856,22 +31856,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P12" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q12" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R12" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S12" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T12" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U12" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,19 +31908,19 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H13" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I13" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J13" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K13" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L13" t="n">
         <v>101.2724571246924</v>
@@ -31932,22 +31932,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O13" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P13" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q13" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R13" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S13" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T13" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U13" t="n">
         <v>0.0371551145131561</v>
@@ -31987,46 +31987,46 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H14" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I14" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J14" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K14" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L14" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M14" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N14" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O14" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P14" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q14" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R14" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S14" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T14" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U14" t="n">
         <v>0.1214853995472036</v>
@@ -32066,16 +32066,16 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H15" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I15" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J15" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K15" t="n">
         <v>131.2017781649102</v>
@@ -32093,22 +32093,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P15" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q15" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R15" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S15" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T15" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U15" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,19 +32145,19 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H16" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I16" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J16" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K16" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L16" t="n">
         <v>101.2724571246924</v>
@@ -32169,22 +32169,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O16" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P16" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q16" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R16" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S16" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T16" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U16" t="n">
         <v>0.0371551145131561</v>
@@ -32224,46 +32224,46 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H17" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I17" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J17" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K17" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L17" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M17" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N17" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O17" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P17" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q17" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R17" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S17" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T17" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U17" t="n">
         <v>0.1214853995472036</v>
@@ -32303,16 +32303,16 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H18" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I18" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J18" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K18" t="n">
         <v>131.2017781649102</v>
@@ -32330,22 +32330,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P18" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q18" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R18" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S18" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T18" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U18" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,19 +32382,19 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H19" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I19" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J19" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K19" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L19" t="n">
         <v>101.2724571246924</v>
@@ -32406,22 +32406,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O19" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P19" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q19" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R19" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S19" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T19" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U19" t="n">
         <v>0.0371551145131561</v>
@@ -33409,13 +33409,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H32" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I32" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J32" t="n">
         <v>128.8865178727436</v>
@@ -33433,22 +33433,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O32" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P32" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q32" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R32" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S32" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T32" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U32" t="n">
         <v>0.1214853995472036</v>
@@ -33488,16 +33488,16 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H33" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I33" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J33" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K33" t="n">
         <v>131.2017781649102</v>
@@ -33521,16 +33521,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R33" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S33" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T33" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U33" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,19 +33567,19 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H34" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I34" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J34" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K34" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L34" t="n">
         <v>101.2724571246924</v>
@@ -33591,13 +33591,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O34" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P34" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q34" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R34" t="n">
         <v>30.62819939701163</v>
@@ -33606,7 +33606,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T34" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U34" t="n">
         <v>0.0371551145131561</v>
@@ -33652,19 +33652,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I35" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J35" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K35" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L35" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M35" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N35" t="n">
         <v>270.9617944338304</v>
@@ -33679,13 +33679,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R35" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S35" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T35" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U35" t="n">
         <v>0.1214853995472036</v>
@@ -33725,16 +33725,16 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H36" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I36" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J36" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K36" t="n">
         <v>131.2017781649102</v>
@@ -33752,22 +33752,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P36" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q36" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R36" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S36" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T36" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U36" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,16 +33804,16 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H37" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I37" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J37" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K37" t="n">
         <v>79.14039391302239</v>
@@ -33828,16 +33828,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O37" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P37" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q37" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R37" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S37" t="n">
         <v>11.87105908695336</v>
@@ -33889,19 +33889,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I38" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J38" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K38" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L38" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M38" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N38" t="n">
         <v>270.9617944338304</v>
@@ -33916,13 +33916,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R38" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S38" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T38" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U38" t="n">
         <v>0.1214853995472036</v>
@@ -33962,16 +33962,16 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H39" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I39" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J39" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K39" t="n">
         <v>131.2017781649102</v>
@@ -33989,22 +33989,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P39" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q39" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R39" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S39" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T39" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U39" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,16 +34041,16 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H40" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I40" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J40" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K40" t="n">
         <v>79.14039391302239</v>
@@ -34065,16 +34065,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O40" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P40" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q40" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R40" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S40" t="n">
         <v>11.87105908695336</v>
@@ -34126,19 +34126,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I41" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J41" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K41" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L41" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M41" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N41" t="n">
         <v>270.9617944338304</v>
@@ -34153,13 +34153,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R41" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S41" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T41" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U41" t="n">
         <v>0.1214853995472036</v>
@@ -34199,16 +34199,16 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H42" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I42" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J42" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K42" t="n">
         <v>131.2017781649102</v>
@@ -34226,22 +34226,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P42" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q42" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R42" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S42" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T42" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U42" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,16 +34278,16 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H43" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I43" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J43" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K43" t="n">
         <v>79.14039391302239</v>
@@ -34302,16 +34302,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O43" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P43" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q43" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R43" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S43" t="n">
         <v>11.87105908695336</v>
@@ -34363,19 +34363,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I44" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J44" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K44" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L44" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M44" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N44" t="n">
         <v>270.9617944338304</v>
@@ -34390,13 +34390,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R44" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S44" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T44" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U44" t="n">
         <v>0.1214853995472036</v>
@@ -34436,16 +34436,16 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H45" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I45" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J45" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K45" t="n">
         <v>131.2017781649102</v>
@@ -34463,22 +34463,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P45" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q45" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R45" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S45" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T45" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U45" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,16 +34515,16 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H46" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I46" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J46" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K46" t="n">
         <v>79.14039391302239</v>
@@ -34539,16 +34539,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O46" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P46" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q46" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R46" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S46" t="n">
         <v>11.87105908695336</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,10 +34775,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
-        <v>214.4070918624593</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34787,13 +34787,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35021,19 +35021,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279162</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181306</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35261,16 +35261,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730631</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,25 +35407,25 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K11" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L11" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M11" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N11" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O11" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P11" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q11" t="n">
         <v>153.9975062898689</v>
@@ -35486,7 +35486,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>76.01733575770692</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K12" t="n">
         <v>257.8255762031298</v>
@@ -35495,16 +35495,16 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M12" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279167</v>
       </c>
       <c r="N12" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O12" t="n">
-        <v>325.1459203262123</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P12" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q12" t="n">
         <v>173.8110948137341</v>
@@ -35568,7 +35568,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L13" t="n">
         <v>128.8624823850085</v>
@@ -35583,7 +35583,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P13" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35644,22 +35644,22 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K14" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L14" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M14" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N14" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O14" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P14" t="n">
         <v>308.9376163116798</v>
@@ -35723,25 +35723,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>76.01733575770692</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K15" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L15" t="n">
-        <v>289.2671274730084</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M15" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N15" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O15" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P15" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q15" t="n">
         <v>173.8110948137341</v>
@@ -35805,7 +35805,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L16" t="n">
         <v>128.8624823850085</v>
@@ -35820,7 +35820,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P16" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35881,25 +35881,25 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K17" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L17" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M17" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N17" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O17" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P17" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q17" t="n">
         <v>153.9975062898689</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>76.01733575770692</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K18" t="n">
         <v>257.8255762031298</v>
@@ -35972,13 +35972,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N18" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O18" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262125</v>
       </c>
       <c r="P18" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q18" t="n">
         <v>173.8110948137341</v>
@@ -36042,7 +36042,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L19" t="n">
         <v>128.8624823850085</v>
@@ -36057,7 +36057,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P19" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36449,13 +36449,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O24" t="n">
-        <v>444.5817404245897</v>
+        <v>325.1459203262125</v>
       </c>
       <c r="P24" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q24" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36592,7 +36592,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181304</v>
       </c>
       <c r="K26" t="n">
         <v>297.2230414343419</v>
@@ -36683,7 +36683,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N27" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O27" t="n">
         <v>444.5817404245897</v>
@@ -36692,7 +36692,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q27" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36908,13 +36908,13 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K30" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L30" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730084</v>
       </c>
       <c r="M30" t="n">
         <v>529.4413268262938</v>
@@ -36929,7 +36929,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q30" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37081,10 +37081,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O32" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P32" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q32" t="n">
         <v>153.9975062898689</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>257.8255762031298</v>
@@ -37157,13 +37157,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N33" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O33" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P33" t="n">
-        <v>339.6412258735646</v>
+        <v>296.2227415328944</v>
       </c>
       <c r="Q33" t="n">
         <v>173.8110948137341</v>
@@ -37227,7 +37227,7 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L34" t="n">
         <v>128.8624823850085</v>
@@ -37242,7 +37242,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P34" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -37303,19 +37303,19 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>116.9372285181302</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K35" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L35" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M35" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N35" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O35" t="n">
         <v>406.5635087530452</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K36" t="n">
         <v>257.8255762031298</v>
@@ -37394,16 +37394,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N36" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O36" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P36" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q36" t="n">
-        <v>130.3926104730631</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37540,19 +37540,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K38" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L38" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M38" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N38" t="n">
-        <v>478.8956552492227</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O38" t="n">
         <v>406.5635087530452</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K39" t="n">
         <v>257.8255762031298</v>
@@ -37628,19 +37628,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M39" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279162</v>
       </c>
       <c r="N39" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O39" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P39" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q39" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37777,19 +37777,19 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>116.9372285181302</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K41" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L41" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M41" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N41" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O41" t="n">
         <v>406.5635087530452</v>
@@ -37798,7 +37798,7 @@
         <v>308.9376163116798</v>
       </c>
       <c r="Q41" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K42" t="n">
         <v>257.8255762031298</v>
@@ -37868,16 +37868,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N42" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O42" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P42" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q42" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38014,19 +38014,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K44" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L44" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M44" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N44" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O44" t="n">
         <v>406.5635087530452</v>
@@ -38093,10 +38093,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624596</v>
       </c>
       <c r="L45" t="n">
         <v>408.7029475713857</v>
@@ -38105,16 +38105,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N45" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O45" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P45" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q45" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_2_22.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_2_22.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1383521.760523812</v>
+        <v>1359742.074468367</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1918874.523826588</v>
+        <v>2264668.837800621</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4008798.132631243</v>
+        <v>1169509.511665971</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9900491.0034204</v>
+        <v>11161499.13848754</v>
       </c>
     </row>
     <row r="11">
@@ -664,22 +664,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>212.8953541384838</v>
+        <v>394.0215017740269</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,22 +706,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250796</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -828,10 +828,10 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -864,16 +864,16 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>178.925350145155</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>9.275596830496628</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -895,25 +895,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>121.9722865630709</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -943,25 +943,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>325.2557485598865</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1098,16 +1098,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>112.200859218067</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1116,13 +1116,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>43.31785343914003</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1138,22 +1138,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>217.868871192146</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>163.0393051447077</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1311,10 +1311,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,16 +1335,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>99.34508049624304</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1353,13 +1353,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>223.1498336210771</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1369,10 +1369,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1384,13 +1384,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>413.784170020795</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>323.9227727643571</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>151.9313162448613</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>174.4157128089715</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
-        <v>216.4483203576578</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
-        <v>192.78229847458</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.2409687174118</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1463,13 +1463,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>136.5310119231965</v>
+        <v>135.5574116118565</v>
       </c>
       <c r="H12" t="n">
-        <v>104.3883541553076</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>61.42221998250818</v>
+        <v>27.90133207014446</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,16 +1496,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>49.71123688229331</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>156.5912426325231</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T12" t="n">
-        <v>196.8897623984489</v>
+        <v>192.9654699154601</v>
       </c>
       <c r="U12" t="n">
-        <v>225.8879277888686</v>
+        <v>225.8238751368068</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1530,25 +1530,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>63.57678144609376</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>167.3098022590509</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1584,19 +1584,19 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>3.334148296601278</v>
       </c>
     </row>
     <row r="14">
@@ -1606,28 +1606,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>413.784170020795</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>127.9394108880953</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>174.4157128089715</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
-        <v>216.4483203576578</v>
+        <v>208.4827883385011</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2241675082893</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1700,13 +1700,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>136.5310119231965</v>
+        <v>135.5574116118565</v>
       </c>
       <c r="H15" t="n">
-        <v>104.3883541553076</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>61.42221998250818</v>
+        <v>27.90133207014446</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,16 +1733,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>49.71123688229331</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>156.5912426325231</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T15" t="n">
-        <v>196.8897623984489</v>
+        <v>192.9654699154601</v>
       </c>
       <c r="U15" t="n">
-        <v>225.8879277888686</v>
+        <v>225.8238751368068</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1773,19 +1773,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>62.33263748886721</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>134.9656217923382</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>27.43389090682119</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.7791350527396</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051975</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014446</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2007,22 +2007,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>89.07224759472207</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>40.71096332175367</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051975</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014446</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2238,13 +2238,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2253,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>161.1706059301396</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2289,16 +2289,16 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2374,7 +2374,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U23" t="n">
-        <v>251.0785952497999</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2475,10 +2475,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2529,10 +2529,10 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>118.4898845065119</v>
       </c>
       <c r="U25" t="n">
-        <v>57.64843562452423</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2572,7 +2572,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113166</v>
       </c>
       <c r="I26" t="n">
         <v>81.77913505274077</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
@@ -2775,13 +2775,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>211.2541671901477</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2857,7 +2857,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.7311006784677</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2949,13 +2949,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>57.64843562452468</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -3000,13 +3000,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3186,13 +3186,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -3204,10 +3204,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,10 +3237,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3252,10 +3252,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>174.3062600431768</v>
+        <v>116.9087606441048</v>
       </c>
     </row>
     <row r="35">
@@ -3283,10 +3283,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H35" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3423,19 +3423,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3477,10 +3477,10 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3489,10 +3489,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>61.47226067794325</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3669,13 +3669,13 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>24.1470067486599</v>
       </c>
       <c r="U40" t="n">
         <v>286.2373523985773</v>
@@ -3726,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>33.35146980185857</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U41" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3900,22 +3900,22 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>14.05504092725424</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3957,13 +3957,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4149,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4188,10 +4188,10 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>224.895256723152</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1504.400259589023</v>
+        <v>1975.94687169884</v>
       </c>
       <c r="C2" t="n">
-        <v>1135.437742648611</v>
+        <v>1606.984354758428</v>
       </c>
       <c r="D2" t="n">
-        <v>1135.437742648611</v>
+        <v>1248.718656151678</v>
       </c>
       <c r="E2" t="n">
-        <v>749.6494900503667</v>
+        <v>862.9304035534335</v>
       </c>
       <c r="F2" t="n">
-        <v>749.6494900503667</v>
+        <v>451.9444987638259</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4342,7 +4342,7 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U2" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V2" t="n">
-        <v>2247.308246834948</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W2" t="n">
-        <v>1894.539591564834</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="X2" t="n">
-        <v>1894.539591564834</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="Y2" t="n">
-        <v>1504.400259589023</v>
+        <v>1975.94687169884</v>
       </c>
     </row>
     <row r="3">
@@ -4391,19 +4391,19 @@
         <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692492</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>99.59950625323012</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="C4" t="n">
-        <v>99.59950625323012</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="D4" t="n">
-        <v>99.59950625323012</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="E4" t="n">
-        <v>99.59950625323012</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F4" t="n">
-        <v>99.59950625323012</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R4" t="n">
-        <v>550.5654064942401</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="S4" t="n">
-        <v>336.2769833124028</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="T4" t="n">
-        <v>108.9687959810045</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="U4" t="n">
-        <v>99.59950625323012</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="V4" t="n">
-        <v>99.59950625323012</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="W4" t="n">
-        <v>99.59950625323012</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="X4" t="n">
-        <v>99.59950625323012</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="Y4" t="n">
-        <v>99.59950625323012</v>
+        <v>369.8327295799424</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>546.109828622464</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="C5" t="n">
-        <v>177.1473116820522</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D5" t="n">
-        <v>177.1473116820522</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E5" t="n">
-        <v>177.1473116820522</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F5" t="n">
-        <v>177.1473116820522</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
-        <v>177.1473116820522</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
         <v>53.94298182036445</v>
@@ -4567,19 +4567,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>1993.54646147304</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V5" t="n">
-        <v>1662.48357412947</v>
+        <v>2368.607930856721</v>
       </c>
       <c r="W5" t="n">
-        <v>1309.714918859356</v>
+        <v>2368.607930856721</v>
       </c>
       <c r="X5" t="n">
-        <v>936.2491605982757</v>
+        <v>2368.607930856721</v>
       </c>
       <c r="Y5" t="n">
-        <v>546.109828622464</v>
+        <v>1978.468598880909</v>
       </c>
     </row>
     <row r="6">
@@ -4622,22 +4622,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4646,49 +4646,49 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>336.2769833124028</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>222.942782082032</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>222.942782082032</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>222.942782082032</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>222.942782082032</v>
+        <v>684.3735766921516</v>
       </c>
       <c r="X7" t="n">
-        <v>222.942782082032</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="Y7" t="n">
-        <v>222.942782082032</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1920.409918978289</v>
+        <v>1370.766673031379</v>
       </c>
       <c r="C8" t="n">
-        <v>1551.447402037877</v>
+        <v>1001.804156090968</v>
       </c>
       <c r="D8" t="n">
-        <v>1551.447402037877</v>
+        <v>643.5384574842171</v>
       </c>
       <c r="E8" t="n">
-        <v>1165.659149439633</v>
+        <v>643.5384574842171</v>
       </c>
       <c r="F8" t="n">
-        <v>754.6732446500255</v>
+        <v>232.5525526946096</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>218.6291486332005</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4831,25 +4831,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="W8" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="X8" t="n">
-        <v>2697.149091018222</v>
+        <v>2147.505845071313</v>
       </c>
       <c r="Y8" t="n">
-        <v>2307.009759042411</v>
+        <v>1757.366513095501</v>
       </c>
     </row>
     <row r="9">
@@ -4883,25 +4883,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>235.9284171545818</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>235.9284171545818</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>235.9284171545818</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>235.9284171545818</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>235.9284171545818</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>235.9284171545818</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>235.9284171545818</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4968,46 +4968,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>336.2769833124031</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>235.9284171545818</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>235.9284171545818</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>235.9284171545818</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>235.9284171545818</v>
+        <v>502.7251118619119</v>
       </c>
       <c r="X10" t="n">
-        <v>235.9284171545818</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y10" t="n">
-        <v>235.9284171545818</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2107.607341885688</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
-        <v>2107.607341885688</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1749.341643278937</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1363.553390680693</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>952.5674858910851</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>534.603677789272</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>207.4089578252748</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>53.94298182036445</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J11" t="n">
-        <v>169.7108380533141</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K11" t="n">
-        <v>463.9616490733127</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
-        <v>881.2824271224076</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>1362.238747280443</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>1836.345445977175</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
-        <v>2238.843319642689</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>2544.691559791252</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
-        <v>2697.149091018222</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R11" t="n">
-        <v>2697.149091018222</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S11" t="n">
-        <v>2520.971603332393</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
-        <v>2302.336936304455</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
-        <v>2107.607341885688</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V11" t="n">
-        <v>2107.607341885688</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W11" t="n">
-        <v>2107.607341885688</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>2107.607341885688</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2107.607341885688</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>988.4979752170825</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C12" t="n">
-        <v>814.0449459359555</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D12" t="n">
-        <v>665.1105362747041</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E12" t="n">
-        <v>505.8730812692486</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F12" t="n">
-        <v>359.3385232961338</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G12" t="n">
-        <v>221.4284102424003</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H12" t="n">
-        <v>115.9856282673422</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>53.94298182036445</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J12" t="n">
-        <v>129.2001442204943</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>384.4474646615928</v>
+        <v>549.5984374701559</v>
       </c>
       <c r="L12" t="n">
-        <v>789.0633827572647</v>
+        <v>796.3635653766198</v>
       </c>
       <c r="M12" t="n">
-        <v>1313.210296315296</v>
+        <v>1564.731711769081</v>
       </c>
       <c r="N12" t="n">
-        <v>1866.936832414847</v>
+        <v>1894.594339433114</v>
       </c>
       <c r="O12" t="n">
-        <v>2307.072755435191</v>
+        <v>2174.134404651811</v>
       </c>
       <c r="P12" t="n">
-        <v>2643.31756905002</v>
+        <v>2379.15688543402</v>
       </c>
       <c r="Q12" t="n">
-        <v>2697.149091018222</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R12" t="n">
-        <v>2646.935720430047</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S12" t="n">
-        <v>2488.762748073963</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T12" t="n">
-        <v>2289.884200196742</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U12" t="n">
-        <v>2061.714576167582</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V12" t="n">
-        <v>1826.562467935839</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W12" t="n">
-        <v>1572.325111207637</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X12" t="n">
-        <v>1364.473611002104</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y12" t="n">
-        <v>1156.713312237151</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>728.1289842064344</v>
+        <v>434.3285960683721</v>
       </c>
       <c r="C13" t="n">
-        <v>728.1289842064344</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D13" t="n">
-        <v>728.1289842064344</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E13" t="n">
-        <v>663.910013048764</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F13" t="n">
-        <v>517.0200655508536</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G13" t="n">
-        <v>348.0202652891861</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H13" t="n">
-        <v>190.2718927217162</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I13" t="n">
-        <v>53.94298182036445</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J13" t="n">
-        <v>53.94298182036445</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>110.2451748866326</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L13" t="n">
-        <v>237.8190324477911</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M13" t="n">
-        <v>382.716901165821</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N13" t="n">
-        <v>529.6040388502502</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>649.2617893594903</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P13" t="n">
-        <v>728.1289842064344</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>728.1289842064344</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>728.1289842064344</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>728.1289842064344</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>728.1289842064344</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U13" t="n">
-        <v>728.1289842064344</v>
+        <v>1209.78763177146</v>
       </c>
       <c r="V13" t="n">
-        <v>728.1289842064344</v>
+        <v>955.1031435655735</v>
       </c>
       <c r="W13" t="n">
-        <v>728.1289842064344</v>
+        <v>665.685973528613</v>
       </c>
       <c r="X13" t="n">
-        <v>728.1289842064344</v>
+        <v>437.6964226305956</v>
       </c>
       <c r="Y13" t="n">
-        <v>728.1289842064344</v>
+        <v>434.3285960683721</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>601.1385180919708</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
-        <v>601.1385180919708</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>601.1385180919708</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>601.1385180919708</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>601.1385180919708</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>183.1747099901577</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>183.1747099901577</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>53.94298182036446</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J14" t="n">
-        <v>169.7108380533141</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>463.9616490733129</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
-        <v>881.2824271224077</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
-        <v>1362.238747280443</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>1836.345445977175</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
-        <v>2238.843319642689</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>2544.691559791253</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
-        <v>2697.149091018223</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R14" t="n">
-        <v>2697.149091018223</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S14" t="n">
-        <v>2520.971603332393</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T14" t="n">
-        <v>2302.336936304456</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>2048.575150942547</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>1717.512263598976</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>1364.743608328862</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>991.2778500677825</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>601.1385180919708</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>988.4979752170833</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C15" t="n">
-        <v>814.0449459359563</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D15" t="n">
-        <v>665.1105362747051</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E15" t="n">
-        <v>505.8730812692495</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F15" t="n">
-        <v>359.3385232961344</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G15" t="n">
-        <v>221.4284102424006</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H15" t="n">
-        <v>115.9856282673424</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>53.94298182036446</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J15" t="n">
-        <v>129.2001442204943</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K15" t="n">
-        <v>384.4474646615928</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L15" t="n">
-        <v>789.0633827572647</v>
+        <v>921.1936903636247</v>
       </c>
       <c r="M15" t="n">
-        <v>1313.210296315296</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N15" t="n">
-        <v>1866.936832414847</v>
+        <v>2032.925401907737</v>
       </c>
       <c r="O15" t="n">
-        <v>2307.072755435191</v>
+        <v>2312.465467126433</v>
       </c>
       <c r="P15" t="n">
-        <v>2643.31756905002</v>
+        <v>2517.487947908643</v>
       </c>
       <c r="Q15" t="n">
-        <v>2697.149091018223</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R15" t="n">
-        <v>2646.935720430048</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S15" t="n">
-        <v>2488.762748073964</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T15" t="n">
-        <v>2289.884200196743</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U15" t="n">
-        <v>2061.714576167582</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V15" t="n">
-        <v>1826.56246793584</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W15" t="n">
-        <v>1572.325111207638</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X15" t="n">
-        <v>1364.473611002105</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y15" t="n">
-        <v>1156.713312237151</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>579.9823256406185</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="C16" t="n">
-        <v>579.9823256406185</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="D16" t="n">
-        <v>579.9823256406185</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="E16" t="n">
-        <v>517.0200655508536</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="F16" t="n">
-        <v>517.0200655508536</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G16" t="n">
-        <v>348.0202652891861</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H16" t="n">
-        <v>190.2718927217162</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
-        <v>53.94298182036446</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J16" t="n">
-        <v>53.94298182036446</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>110.2451748866326</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L16" t="n">
-        <v>237.8190324477911</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M16" t="n">
-        <v>382.716901165821</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N16" t="n">
-        <v>529.6040388502502</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>649.2617893594903</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P16" t="n">
-        <v>728.1289842064344</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
-        <v>728.1289842064344</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>579.9823256406185</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>579.9823256406185</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T16" t="n">
-        <v>579.9823256406185</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U16" t="n">
-        <v>579.9823256406185</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V16" t="n">
-        <v>579.9823256406185</v>
+        <v>1047.499844346979</v>
       </c>
       <c r="W16" t="n">
-        <v>579.9823256406185</v>
+        <v>758.0826743100185</v>
       </c>
       <c r="X16" t="n">
-        <v>579.9823256406185</v>
+        <v>758.0826743100185</v>
       </c>
       <c r="Y16" t="n">
-        <v>579.9823256406185</v>
+        <v>537.2900951664884</v>
       </c>
     </row>
     <row r="17">
@@ -5491,37 +5491,37 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805458</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.822278382245</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028583</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
@@ -5542,25 +5542,25 @@
         <v>4860.854573014291</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5582,13 +5582,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G18" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H18" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I18" t="n">
         <v>97.21709146028583</v>
@@ -5600,7 +5600,7 @@
         <v>674.4285624571608</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636247</v>
+        <v>921.1936903636248</v>
       </c>
       <c r="M18" t="n">
         <v>1228.513823643586</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>674.7185717878249</v>
+        <v>879.2482765610114</v>
       </c>
       <c r="C19" t="n">
-        <v>505.782388859918</v>
+        <v>710.3120936331045</v>
       </c>
       <c r="D19" t="n">
-        <v>505.782388859918</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E19" t="n">
-        <v>505.782388859918</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F19" t="n">
-        <v>505.782388859918</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G19" t="n">
-        <v>337.6070671797386</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H19" t="n">
-        <v>187.1890587276819</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028583</v>
@@ -5676,19 +5676,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799362</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
         <v>1460.082827585746</v>
@@ -5697,28 +5697,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>964.1357418247856</v>
+        <v>1457.794085384414</v>
       </c>
       <c r="U19" t="n">
-        <v>964.1357418247856</v>
+        <v>1168.665446597972</v>
       </c>
       <c r="V19" t="n">
-        <v>964.1357418247856</v>
+        <v>1168.665446597972</v>
       </c>
       <c r="W19" t="n">
-        <v>674.7185717878249</v>
+        <v>879.2482765610114</v>
       </c>
       <c r="X19" t="n">
-        <v>674.7185717878249</v>
+        <v>879.2482765610114</v>
       </c>
       <c r="Y19" t="n">
-        <v>674.7185717878249</v>
+        <v>879.2482765610114</v>
       </c>
     </row>
     <row r="20">
@@ -5728,7 +5728,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
@@ -5737,22 +5737,22 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J20" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
         <v>889.2841917514083</v>
@@ -5770,13 +5770,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
         <v>4726.561275231264</v>
@@ -5788,16 +5788,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5828,16 +5828,16 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571608</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636247</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
         <v>1228.513823643586</v>
@@ -5886,46 +5886,46 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>579.0685056491543</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>410.1323227212474</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>260.0156833089117</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>260.0156833089117</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>260.0156833089117</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799362</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
         <v>1460.082827585746</v>
@@ -5937,25 +5937,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T22" t="n">
-        <v>1498.916270557902</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U22" t="n">
-        <v>1498.916270557902</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V22" t="n">
-        <v>1498.916270557902</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W22" t="n">
-        <v>1209.499100520942</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X22" t="n">
-        <v>981.5095496229242</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y22" t="n">
-        <v>760.716970479394</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
         <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
         <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6056,25 +6056,25 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571608</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636248</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
         <v>1228.513823643586</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>266.1532743881928</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6177,22 +6177,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>1498.916270557902</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U25" t="n">
-        <v>1440.685527502827</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V25" t="n">
-        <v>1186.00103929694</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W25" t="n">
-        <v>896.5838692599799</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X25" t="n">
-        <v>668.5943183619626</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y25" t="n">
-        <v>447.8017392184324</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6205,31 +6205,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F26" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H26" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6247,28 +6247,28 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6293,25 +6293,25 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G27" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636248</v>
       </c>
       <c r="M27" t="n">
         <v>1228.513823643586</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6411,25 +6411,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T28" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U28" t="n">
-        <v>786.0822064765186</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V28" t="n">
-        <v>531.3977182706318</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W28" t="n">
-        <v>318.0096706038159</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>318.0096706038159</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="29">
@@ -6439,61 +6439,61 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
         <v>4262.3578574653</v>
@@ -6505,10 +6505,10 @@
         <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6530,34 +6530,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G30" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>159.1396882805848</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>570.0299571250974</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>816.7950850315615</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1124.115218311523</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
-        <v>1453.977845975556</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
         <v>2328.464088060424</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3686.322319899657</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C31" t="n">
-        <v>3517.38613697175</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
-        <v>4411.546387431055</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O31" t="n">
-        <v>4645.421365436452</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>4822.021130042135</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q31" t="n">
-        <v>4860.854573014291</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>4860.854573014291</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>4860.854573014291</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T31" t="n">
-        <v>4860.854573014291</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U31" t="n">
-        <v>4860.854573014291</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V31" t="n">
-        <v>4606.170084808405</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W31" t="n">
-        <v>4316.752914771444</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X31" t="n">
-        <v>4088.763363873427</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y31" t="n">
-        <v>3867.970784729897</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="32">
@@ -6703,7 +6703,7 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6718,7 +6718,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
         <v>4801.62743720783</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1141.200876391121</v>
+        <v>729.1316371486756</v>
       </c>
       <c r="C34" t="n">
-        <v>972.2646934632137</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="D34" t="n">
-        <v>822.1480540508779</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E34" t="n">
-        <v>674.2349604684848</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F34" t="n">
-        <v>527.3450129705744</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G34" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
         <v>97.21709146028584</v>
@@ -6885,25 +6885,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U34" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V34" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="W34" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="X34" t="n">
-        <v>1498.916270557902</v>
+        <v>847.2212943649431</v>
       </c>
       <c r="Y34" t="n">
-        <v>1322.84934122136</v>
+        <v>729.1316371486756</v>
       </c>
     </row>
     <row r="35">
@@ -6919,28 +6919,28 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C36" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D36" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E36" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G36" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>2500.819361250803</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K36" t="n">
-        <v>2911.709630095316</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L36" t="n">
-        <v>3158.47475800178</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M36" t="n">
-        <v>3465.794891281741</v>
+        <v>1670.043068977054</v>
       </c>
       <c r="N36" t="n">
-        <v>3795.657518945774</v>
+        <v>1999.905696641086</v>
       </c>
       <c r="O36" t="n">
-        <v>4075.197584164471</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P36" t="n">
-        <v>4565.745155698578</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q36" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S36" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T36" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U36" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V36" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W36" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X36" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y36" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="37">
@@ -7071,16 +7071,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>711.072954880832</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="C37" t="n">
-        <v>542.1367719529251</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="D37" t="n">
-        <v>392.0201325405893</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="E37" t="n">
-        <v>244.1070389581962</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="F37" t="n">
         <v>97.21709146028584</v>
@@ -7125,22 +7125,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U37" t="n">
-        <v>1498.916270557902</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V37" t="n">
-        <v>1244.231782352015</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W37" t="n">
-        <v>954.8146123150548</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X37" t="n">
-        <v>954.8146123150548</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y37" t="n">
-        <v>892.7214197110717</v>
+        <v>213.9110074201016</v>
       </c>
     </row>
     <row r="38">
@@ -7165,7 +7165,7 @@
         <v>904.319011615589</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822458</v>
@@ -7174,19 +7174,19 @@
         <v>97.21709146028562</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
@@ -7262,7 +7262,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
         <v>1558.376451307619</v>
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028584</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028584</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028584</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G40" t="n">
         <v>97.21709146028584</v>
@@ -7356,28 +7356,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T40" t="n">
-        <v>964.1357418247858</v>
+        <v>1474.525354650165</v>
       </c>
       <c r="U40" t="n">
-        <v>675.007103038344</v>
+        <v>1185.396715863723</v>
       </c>
       <c r="V40" t="n">
-        <v>420.3226148324571</v>
+        <v>930.7122276578364</v>
       </c>
       <c r="W40" t="n">
-        <v>130.9054447954965</v>
+        <v>641.2950576208757</v>
       </c>
       <c r="X40" t="n">
-        <v>97.21709146028584</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.21709146028584</v>
+        <v>413.3055067228584</v>
       </c>
     </row>
     <row r="41">
@@ -7387,7 +7387,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
         <v>2059.358867610191</v>
@@ -7396,34 +7396,34 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
@@ -7447,16 +7447,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7490,25 +7490,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643586</v>
+        <v>1670.043068977054</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>1999.905696641086</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>874.9271131227918</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="C43" t="n">
-        <v>860.7301020851612</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="D43" t="n">
-        <v>710.6134626728254</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="E43" t="n">
-        <v>562.7003690904323</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="F43" t="n">
-        <v>415.8104215925219</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="G43" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
         <v>97.21709146028584</v>
@@ -7593,28 +7593,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>1164.055751909234</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U43" t="n">
-        <v>874.9271131227918</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V43" t="n">
-        <v>874.9271131227918</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W43" t="n">
-        <v>874.9271131227918</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X43" t="n">
-        <v>874.9271131227918</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y43" t="n">
-        <v>874.9271131227918</v>
+        <v>213.9110074201016</v>
       </c>
     </row>
     <row r="44">
@@ -7651,7 +7651,7 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795206</v>
@@ -7666,7 +7666,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
         <v>4801.62743720783</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="C46" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="G46" t="n">
         <v>97.21709146028584</v>
@@ -7836,22 +7836,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U46" t="n">
-        <v>1271.749344574921</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V46" t="n">
-        <v>1017.064856369034</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W46" t="n">
-        <v>727.647686332073</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X46" t="n">
-        <v>499.6581354340557</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y46" t="n">
-        <v>278.8655562905255</v>
+        <v>213.9110074201016</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951781</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747121</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8540,7 +8540,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516228</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,31 +8768,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>90.64146763747073</v>
+        <v>158.8724419039344</v>
       </c>
       <c r="R12" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445221</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9011,25 +9011,25 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>90.64146763747119</v>
+        <v>19.14409596997203</v>
       </c>
       <c r="R15" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445221</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9260,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.409182577676</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445221</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.409182577676</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445221</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -10117,7 +10117,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504507</v>
       </c>
       <c r="M29" t="n">
         <v>449.5135334928325</v>
@@ -10190,7 +10190,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>20.63789864135491</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10205,10 +10205,10 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
@@ -10664,31 +10664,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>52.49733361305249</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776745</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11138,31 +11138,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>52.49733361305249</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -22546,22 +22546,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>200.8888158823112</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -22603,16 +22603,16 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -22704,28 +22704,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22761,19 +22761,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>277.0062774114811</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -22783,28 +22783,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>201.9504862012863</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22941,31 +22941,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22995,22 +22995,22 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>112.8342462400173</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -23026,7 +23026,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -23035,7 +23035,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>195.915298828649</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -23068,25 +23068,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -23178,25 +23178,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -23232,22 +23232,22 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>125.6900249618412</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -23257,10 +23257,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23305,7 +23305,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -23314,19 +23314,19 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>58.44186903370934</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23418,28 +23418,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>82.85718120047541</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23460,31 +23460,31 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>146.6651919801578</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>212.1455389500189</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>225.0351054580843</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>215.2505050554935</v>
       </c>
     </row>
     <row r="14">
@@ -23494,28 +23494,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>23.99190535676597</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23542,7 +23542,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23661,22 +23661,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>84.10132515770195</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,31 +23697,31 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2818742419777</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>224.7037524170068</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23752,7 +23752,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>1.335820343228988e-12</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>21.34699786954992</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>180.8365977366356</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -24019,7 +24019,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24126,13 +24126,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24141,7 +24141,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>5.322962533238012</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
@@ -24177,16 +24177,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24262,7 +24262,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>1.080024958355352e-12</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -24363,10 +24363,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24417,10 +24417,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>103.0576765518774</v>
       </c>
       <c r="U25" t="n">
-        <v>228.5889167740531</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24460,7 +24460,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24651,7 +24651,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24663,13 +24663,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>75.26883114644332</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24745,7 +24745,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24837,13 +24837,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>90.96703739368768</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24888,13 +24888,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25074,13 +25074,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,10 +25125,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>286.2373523985773</v>
@@ -25140,10 +25140,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>44.278393308918</v>
+        <v>101.67589270799</v>
       </c>
     </row>
     <row r="35">
@@ -25311,19 +25311,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>29.89407122271365</v>
       </c>
       <c r="G37" t="n">
         <v>166.4935684633776</v>
@@ -25365,10 +25365,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25377,10 +25377,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>157.1123926741516</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25557,13 +25557,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>148.9138283675361</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>197.4005543097293</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>192.3581855871786</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25788,22 +25788,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>153.1917801713736</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>50.96659166315999</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
         <v>110.419245464272</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
         <v>197.9208099836032</v>
@@ -25845,13 +25845,13 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26037,7 +26037,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>50.96659166315999</v>
       </c>
       <c r="H46" t="n">
         <v>148.9138283675361</v>
@@ -26076,10 +26076,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>61.3420956754253</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>711682.083108422</v>
+        <v>1002965.942907744</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>711682.0831084221</v>
+        <v>1002965.942907744</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>711682.083108422</v>
+        <v>1002965.942907744</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>711682.083108422</v>
+        <v>952727.6193013648</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>711682.083108422</v>
+        <v>952727.6193013648</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>952727.6193013649</v>
+        <v>952727.619301365</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>952727.619301365</v>
+        <v>952727.6193013649</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>952727.6193013648</v>
+        <v>952727.6193013649</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>952727.6193013648</v>
+        <v>952727.6193013649</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>952727.6193013649</v>
+        <v>952727.619301365</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>952727.619301365</v>
+        <v>952727.6193013649</v>
       </c>
     </row>
     <row r="16">
@@ -26313,43 +26313,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>318067.8710173334</v>
+        <v>451572.973425356</v>
       </c>
       <c r="C2" t="n">
-        <v>318067.8710173335</v>
+        <v>451572.973425356</v>
       </c>
       <c r="D2" t="n">
-        <v>318067.8710173335</v>
+        <v>451572.9734253559</v>
       </c>
       <c r="E2" t="n">
-        <v>318067.8710173335</v>
+        <v>430131.9657114797</v>
       </c>
       <c r="F2" t="n">
-        <v>318067.8710173335</v>
+        <v>430131.9657114798</v>
       </c>
       <c r="G2" t="n">
         <v>430131.9657114797</v>
       </c>
       <c r="H2" t="n">
-        <v>430131.9657114797</v>
+        <v>430131.9657114798</v>
       </c>
       <c r="I2" t="n">
         <v>430131.9657114798</v>
       </c>
       <c r="J2" t="n">
-        <v>430131.9657114798</v>
+        <v>430131.9657114797</v>
       </c>
       <c r="K2" t="n">
         <v>430131.9657114797</v>
       </c>
       <c r="L2" t="n">
-        <v>430131.9657114797</v>
+        <v>430131.9657114798</v>
       </c>
       <c r="M2" t="n">
         <v>430131.9657114797</v>
       </c>
       <c r="N2" t="n">
-        <v>430131.9657114798</v>
+        <v>430131.9657114797</v>
       </c>
       <c r="O2" t="n">
         <v>430131.9657114797</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,22 +26374,22 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>525160.0364768959</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>500180.5412663649</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>130174.471986959</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>18228.92756966326</v>
+        <v>156774.9582512226</v>
       </c>
       <c r="C4" t="n">
-        <v>18228.92756966326</v>
+        <v>156774.9582512226</v>
       </c>
       <c r="D4" t="n">
-        <v>18228.92756966326</v>
+        <v>156774.9582512226</v>
       </c>
       <c r="E4" t="n">
-        <v>18228.92756966326</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="F4" t="n">
-        <v>18228.92756966326</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="G4" t="n">
         <v>15045.6696214391</v>
@@ -26478,37 +26478,37 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>49231.47806340946</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="F5" t="n">
-        <v>49231.47806340947</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871661</v>
       </c>
       <c r="H5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="I5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="J5" t="n">
         <v>91987.32594871661</v>
       </c>
-      <c r="I5" t="n">
-        <v>91987.32594871661</v>
-      </c>
-      <c r="J5" t="n">
+      <c r="K5" t="n">
         <v>91987.32594871662</v>
-      </c>
-      <c r="K5" t="n">
-        <v>91987.32594871661</v>
       </c>
       <c r="L5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
         <v>91987.32594871662</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-372988.0138302838</v>
+        <v>-378028.9421038206</v>
       </c>
       <c r="C6" t="n">
-        <v>216979.8653842607</v>
+        <v>211938.937110724</v>
       </c>
       <c r="D6" t="n">
-        <v>216979.8653842607</v>
+        <v>211938.9371107238</v>
       </c>
       <c r="E6" t="n">
-        <v>250607.4653842608</v>
+        <v>-203035.6575952936</v>
       </c>
       <c r="F6" t="n">
-        <v>250607.4653842608</v>
+        <v>322124.3788816024</v>
       </c>
       <c r="G6" t="n">
-        <v>-177081.5711250409</v>
+        <v>322124.3788816022</v>
       </c>
       <c r="H6" t="n">
-        <v>323098.970141324</v>
+        <v>322124.3788816024</v>
       </c>
       <c r="I6" t="n">
-        <v>323098.9701413239</v>
+        <v>322124.3788816024</v>
       </c>
       <c r="J6" t="n">
-        <v>146675.750948731</v>
+        <v>145701.1596890095</v>
       </c>
       <c r="K6" t="n">
-        <v>323098.9701413239</v>
+        <v>322124.3788816023</v>
       </c>
       <c r="L6" t="n">
-        <v>323098.970141324</v>
+        <v>322124.3788816024</v>
       </c>
       <c r="M6" t="n">
-        <v>323098.970141324</v>
+        <v>187323.3636477652</v>
       </c>
       <c r="N6" t="n">
-        <v>323098.9701413241</v>
+        <v>322124.3788816023</v>
       </c>
       <c r="O6" t="n">
-        <v>192924.498154365</v>
+        <v>322124.3788816023</v>
       </c>
       <c r="P6" t="n">
-        <v>323098.9701413241</v>
+        <v>322124.3788816024</v>
       </c>
     </row>
   </sheetData>
@@ -26737,25 +26737,25 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>377.7436642170867</v>
+      </c>
+      <c r="C3" t="n">
+        <v>377.7436642170867</v>
+      </c>
+      <c r="D3" t="n">
         <v>377.7436642170866</v>
       </c>
-      <c r="C3" t="n">
-        <v>377.7436642170866</v>
-      </c>
-      <c r="D3" t="n">
-        <v>377.7436642170867</v>
-      </c>
       <c r="E3" t="n">
-        <v>377.7436642170867</v>
+        <v>830.3824054541</v>
       </c>
       <c r="F3" t="n">
-        <v>377.7436642170867</v>
+        <v>830.3824054541</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
         <v>830.3824054541002</v>
@@ -26770,13 +26770,13 @@
         <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
         <v>830.3824054541002</v>
@@ -26798,10 +26798,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>674.2872727545556</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="F4" t="n">
-        <v>674.2872727545557</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="G4" t="n">
         <v>1215.213643253573</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,19 +26968,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>452.6387412370133</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>452.6387412370133</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27020,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>540.9263704990171</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,13 +27044,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>540.9263704990171</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>540.9263704990171</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27393,13 +27393,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>19.7626682467681</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,25 +27426,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27536,16 +27536,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27554,13 +27554,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27587,25 +27587,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>33.22018880486391</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27630,13 +27630,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,25 +27663,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>2.496509910248449</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27776,28 +27776,28 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,25 +27818,25 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>243.205144897451</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27861,19 +27861,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>160.8834676196495</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,22 +27900,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28010,31 +28010,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,25 +28055,25 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>63.37316471551392</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31521,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31548,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31697,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.518567494340046</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>15.55202935141</v>
+        <v>34.18755300444943</v>
       </c>
       <c r="I11" t="n">
-        <v>58.54457332554468</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>128.8865178727436</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K11" t="n">
-        <v>193.1674799081578</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L11" t="n">
-        <v>239.641339863067</v>
+        <v>526.7962671304438</v>
       </c>
       <c r="M11" t="n">
-        <v>266.6471645405368</v>
+        <v>586.1623499565517</v>
       </c>
       <c r="N11" t="n">
-        <v>270.9617944338304</v>
+        <v>595.6470695927184</v>
       </c>
       <c r="O11" t="n">
-        <v>255.8615389119866</v>
+        <v>562.4526372540884</v>
       </c>
       <c r="P11" t="n">
-        <v>218.3719038954667</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q11" t="n">
-        <v>163.9882055044137</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R11" t="n">
-        <v>95.39071536633799</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S11" t="n">
-        <v>34.60435677727383</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T11" t="n">
-        <v>6.647529206473554</v>
+        <v>14.61306122562943</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.8125052400141111</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
-        <v>7.847090081188916</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I12" t="n">
-        <v>27.9744128689069</v>
+        <v>61.49530078127062</v>
       </c>
       <c r="J12" t="n">
-        <v>76.76392708396477</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
-        <v>131.2017781649102</v>
+        <v>288.4168775622981</v>
       </c>
       <c r="L12" t="n">
-        <v>176.4169820478007</v>
+        <v>387.8120847358983</v>
       </c>
       <c r="M12" t="n">
-        <v>205.8702969983122</v>
+        <v>452.5584109724844</v>
       </c>
       <c r="N12" t="n">
-        <v>211.31907117367</v>
+        <v>464.536285481346</v>
       </c>
       <c r="O12" t="n">
-        <v>193.3156655923047</v>
+        <v>424.9599466855524</v>
       </c>
       <c r="P12" t="n">
-        <v>155.1528646479578</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q12" t="n">
-        <v>103.7155811639065</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
-        <v>50.44659727034983</v>
+        <v>110.8952201095117</v>
       </c>
       <c r="S12" t="n">
-        <v>15.09192847131473</v>
+        <v>33.17612723677463</v>
       </c>
       <c r="T12" t="n">
-        <v>3.274966296372666</v>
+        <v>7.199258779361487</v>
       </c>
       <c r="U12" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6811770994078612</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H13" t="n">
-        <v>6.056283665644443</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>20.48485313492005</v>
+        <v>45.03122946298628</v>
       </c>
       <c r="J13" t="n">
-        <v>48.15922092813578</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>79.14039391302239</v>
+        <v>173.9719203557933</v>
       </c>
       <c r="L13" t="n">
-        <v>101.2724571246924</v>
+        <v>222.6241616196123</v>
       </c>
       <c r="M13" t="n">
-        <v>106.777606591725</v>
+        <v>234.7259642171318</v>
       </c>
       <c r="N13" t="n">
-        <v>104.2386737666594</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
-        <v>96.28128674175845</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P13" t="n">
-        <v>82.38527391383801</v>
+        <v>181.1050413469072</v>
       </c>
       <c r="Q13" t="n">
-        <v>57.03929329678009</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>30.62819939701164</v>
+        <v>67.32903897337667</v>
       </c>
       <c r="S13" t="n">
-        <v>11.87105908695336</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T13" t="n">
-        <v>2.910483970197224</v>
+        <v>6.398028369892243</v>
       </c>
       <c r="U13" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.08167695791351812</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.518567494340046</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>15.55202935141</v>
+        <v>34.18755300444943</v>
       </c>
       <c r="I14" t="n">
-        <v>58.54457332554468</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>128.8865178727436</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K14" t="n">
-        <v>193.1674799081578</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L14" t="n">
-        <v>239.641339863067</v>
+        <v>526.7962671304438</v>
       </c>
       <c r="M14" t="n">
-        <v>266.6471645405368</v>
+        <v>586.1623499565517</v>
       </c>
       <c r="N14" t="n">
-        <v>270.9617944338304</v>
+        <v>595.6470695927184</v>
       </c>
       <c r="O14" t="n">
-        <v>255.8615389119866</v>
+        <v>562.4526372540884</v>
       </c>
       <c r="P14" t="n">
-        <v>218.3719038954667</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q14" t="n">
-        <v>163.9882055044137</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R14" t="n">
-        <v>95.39071536633799</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S14" t="n">
-        <v>34.60435677727383</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T14" t="n">
-        <v>6.647529206473554</v>
+        <v>14.61306122562943</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.8125052400141111</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
-        <v>7.847090081188916</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I15" t="n">
-        <v>27.9744128689069</v>
+        <v>61.49530078127062</v>
       </c>
       <c r="J15" t="n">
-        <v>76.76392708396477</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
-        <v>131.2017781649102</v>
+        <v>288.4168775622981</v>
       </c>
       <c r="L15" t="n">
-        <v>176.4169820478007</v>
+        <v>387.8120847358983</v>
       </c>
       <c r="M15" t="n">
-        <v>205.8702969983122</v>
+        <v>452.5584109724844</v>
       </c>
       <c r="N15" t="n">
-        <v>211.31907117367</v>
+        <v>464.536285481346</v>
       </c>
       <c r="O15" t="n">
-        <v>193.3156655923047</v>
+        <v>424.9599466855524</v>
       </c>
       <c r="P15" t="n">
-        <v>155.1528646479578</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q15" t="n">
-        <v>103.7155811639065</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
-        <v>50.44659727034983</v>
+        <v>110.8952201095117</v>
       </c>
       <c r="S15" t="n">
-        <v>15.09192847131473</v>
+        <v>33.17612723677463</v>
       </c>
       <c r="T15" t="n">
-        <v>3.274966296372666</v>
+        <v>7.199258779361487</v>
       </c>
       <c r="U15" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6811770994078612</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H16" t="n">
-        <v>6.056283665644443</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>20.48485313492005</v>
+        <v>45.03122946298628</v>
       </c>
       <c r="J16" t="n">
-        <v>48.15922092813578</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>79.14039391302239</v>
+        <v>173.9719203557933</v>
       </c>
       <c r="L16" t="n">
-        <v>101.2724571246924</v>
+        <v>222.6241616196123</v>
       </c>
       <c r="M16" t="n">
-        <v>106.777606591725</v>
+        <v>234.7259642171318</v>
       </c>
       <c r="N16" t="n">
-        <v>104.2386737666594</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
-        <v>96.28128674175845</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P16" t="n">
-        <v>82.38527391383801</v>
+        <v>181.1050413469072</v>
       </c>
       <c r="Q16" t="n">
-        <v>57.03929329678009</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>30.62819939701164</v>
+        <v>67.32903897337667</v>
       </c>
       <c r="S16" t="n">
-        <v>11.87105908695336</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T16" t="n">
-        <v>2.910483970197224</v>
+        <v>6.398028369892243</v>
       </c>
       <c r="U16" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.08167695791351812</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32229,46 +32229,46 @@
         <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444943</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
         <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304438</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565517</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927184</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540884</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
-        <v>14.61306122562943</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32308,43 +32308,43 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127062</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
         <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622981</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358983</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724844</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.536285481346</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855524</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
-        <v>110.8952201095117</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677463</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361487</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32390,43 +32390,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298628</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557933</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196123</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171318</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
         <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P19" t="n">
-        <v>181.1050413469072</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337667</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892243</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351812</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32466,46 +32466,46 @@
         <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444943</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
         <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304438</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565517</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927184</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540884</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
-        <v>14.61306122562943</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32545,43 +32545,43 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127062</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
         <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622981</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358983</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724844</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.536285481346</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855524</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
-        <v>110.8952201095117</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677463</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361487</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32627,43 +32627,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298628</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K22" t="n">
-        <v>173.9719203557933</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L22" t="n">
-        <v>222.6241616196123</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171318</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
         <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P22" t="n">
-        <v>181.1050413469072</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337667</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892243</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351812</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -33648,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33666,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33675,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33684,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33736,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33745,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33763,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33827,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33839,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33903,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33912,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33921,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33973,7 +33973,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33982,10 +33982,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -34000,10 +34000,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34064,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34076,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34140,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34149,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34158,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34210,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34219,10 +34219,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34237,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34301,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34313,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730631</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535621</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35260,19 +35260,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279167</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>116.9372285181311</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K11" t="n">
-        <v>297.223041434342</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L11" t="n">
-        <v>421.5361394435302</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M11" t="n">
-        <v>485.8144648060966</v>
+        <v>805.3296502221115</v>
       </c>
       <c r="N11" t="n">
-        <v>478.8956552492237</v>
+        <v>803.5809304081116</v>
       </c>
       <c r="O11" t="n">
-        <v>406.5635087530452</v>
+        <v>713.154607095147</v>
       </c>
       <c r="P11" t="n">
-        <v>308.9376163116798</v>
+        <v>570.6060255109121</v>
       </c>
       <c r="Q11" t="n">
-        <v>153.9975062898689</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>59.82538970349802</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>76.01733575770692</v>
+        <v>41.91017895490663</v>
       </c>
       <c r="K12" t="n">
-        <v>257.8255762031298</v>
+        <v>415.0406756005177</v>
       </c>
       <c r="L12" t="n">
-        <v>408.7029475713857</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M12" t="n">
-        <v>529.4413268262938</v>
+        <v>776.129440800466</v>
       </c>
       <c r="N12" t="n">
-        <v>559.3197334338903</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O12" t="n">
-        <v>444.5817404245898</v>
+        <v>282.363702241108</v>
       </c>
       <c r="P12" t="n">
-        <v>339.6412258735647</v>
+        <v>207.0934149315245</v>
       </c>
       <c r="Q12" t="n">
-        <v>54.37527471535575</v>
+        <v>246.8854746890084</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>12.50777016556549</v>
       </c>
       <c r="K13" t="n">
-        <v>56.87090208713954</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
-        <v>128.8624823850085</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>146.3614835535656</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N13" t="n">
-        <v>148.370846145888</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>120.8664146557981</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>79.66383317873149</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>39.2256999718747</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>116.9372285181311</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K14" t="n">
-        <v>297.223041434342</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L14" t="n">
-        <v>421.5361394435302</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M14" t="n">
-        <v>485.8144648060966</v>
+        <v>805.3296502221115</v>
       </c>
       <c r="N14" t="n">
-        <v>478.8956552492237</v>
+        <v>803.5809304081116</v>
       </c>
       <c r="O14" t="n">
-        <v>406.5635087530452</v>
+        <v>713.154607095147</v>
       </c>
       <c r="P14" t="n">
-        <v>308.9376163116798</v>
+        <v>570.6060255109121</v>
       </c>
       <c r="Q14" t="n">
-        <v>153.9975062898689</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>59.82538970349802</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>76.01733575770692</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>257.8255762031298</v>
+        <v>415.0406756005177</v>
       </c>
       <c r="L15" t="n">
-        <v>408.7029475713857</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M15" t="n">
-        <v>529.4413268262938</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N15" t="n">
-        <v>559.3197334338903</v>
+        <v>812.5369477415662</v>
       </c>
       <c r="O15" t="n">
-        <v>444.5817404245898</v>
+        <v>282.363702241108</v>
       </c>
       <c r="P15" t="n">
-        <v>339.6412258735647</v>
+        <v>207.0934149315245</v>
       </c>
       <c r="Q15" t="n">
-        <v>54.37527471535621</v>
+        <v>107.1571287550461</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>12.50777016556549</v>
       </c>
       <c r="K16" t="n">
-        <v>56.87090208713954</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
-        <v>128.8624823850085</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>146.3614835535656</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N16" t="n">
-        <v>148.370846145888</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>120.8664146557981</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>79.66383317873149</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>39.2256999718747</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221115</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081116</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.154607095147</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109121</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349802</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35965,25 +35965,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005177</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>282.363702241108</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975092005</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209231</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556549</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299105</v>
@@ -36050,7 +36050,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
         <v>273.2768778056036</v>
@@ -36062,7 +36062,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.2256999718747</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221115</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081116</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.154607095147</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109121</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349802</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36202,25 +36202,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005177</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>282.363702241108</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975092005</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209231</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556549</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299105</v>
@@ -36287,7 +36287,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
         <v>273.2768778056036</v>
@@ -36299,7 +36299,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.2256999718747</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36837,7 +36837,7 @@
         <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M29" t="n">
         <v>805.3296502221116</v>
@@ -36910,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>62.54807759626156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
         <v>415.0406756005178</v>
@@ -36925,10 +36925,10 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -37308,13 +37308,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>334.8610358541607</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975091992</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37478,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,13 +37545,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37630,16 +37630,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37715,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,13 +37782,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>334.8610358541607</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37952,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_2_22.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_2_22.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1359742.074468367</v>
+        <v>1379155.590014171</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2083705.798332965</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.511665971</v>
+        <v>3522967.675855584</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>11161499.13848754</v>
+        <v>10100942.61497029</v>
       </c>
     </row>
     <row r="11">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -673,10 +673,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>394.0215017740269</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>311.4936872159398</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -718,7 +718,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229296</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -819,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>9.22084658737597</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -828,10 +828,10 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -861,16 +861,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>178.925350145155</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,22 +946,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>325.2557485598865</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>263.5442710075176</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>94.63926978364032</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1110,19 +1110,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>43.31785343914003</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1132,25 +1132,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>163.0393051447077</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1186,13 +1186,13 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>116.2150564182921</v>
       </c>
     </row>
     <row r="9">
@@ -1344,22 +1344,22 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>155.886038567534</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>223.1498336210771</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1372,7 +1372,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1384,13 +1384,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896915</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113177</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>81.7791350527408</v>
+        <v>118.4960408938905</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>154.6528871281403</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385019</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U11" t="n">
-        <v>251.078595249801</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174118</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>279.4387772689087</v>
       </c>
     </row>
     <row r="12">
@@ -1463,13 +1463,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>135.5574116118565</v>
+        <v>136.0669836643703</v>
       </c>
       <c r="H12" t="n">
-        <v>94.98542483262921</v>
+        <v>99.90681807664348</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014446</v>
+        <v>45.44580843958678</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,16 +1496,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>20.90078060183529</v>
       </c>
       <c r="S12" t="n">
-        <v>138.5070438670632</v>
+        <v>147.9721212459916</v>
       </c>
       <c r="T12" t="n">
-        <v>192.9654699154601</v>
+        <v>195.0194028815133</v>
       </c>
       <c r="U12" t="n">
-        <v>225.8238751368068</v>
+        <v>225.8573996139459</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>167.3715624658403</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1539,10 +1539,10 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1581,22 +1581,22 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>3.334148296601278</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1606,10 +1606,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1621,13 +1621,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896915</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113177</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>81.7791350527408</v>
+        <v>118.4960408938906</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>154.6528871281403</v>
       </c>
       <c r="T14" t="n">
-        <v>208.4827883385011</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U14" t="n">
-        <v>251.078595249801</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>190.7700348005336</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1700,13 +1700,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>135.5574116118565</v>
+        <v>136.0669836643703</v>
       </c>
       <c r="H15" t="n">
-        <v>94.98542483262921</v>
+        <v>99.90681807664348</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014446</v>
+        <v>45.44580843958678</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,16 +1733,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>20.90078060183531</v>
       </c>
       <c r="S15" t="n">
-        <v>138.5070438670632</v>
+        <v>147.9721212459916</v>
       </c>
       <c r="T15" t="n">
-        <v>192.9654699154601</v>
+        <v>195.0194028815133</v>
       </c>
       <c r="U15" t="n">
-        <v>225.8238751368068</v>
+        <v>225.8573996139459</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1767,25 +1767,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>123.2665578794171</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,25 +1815,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>218.2624057973216</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>27.43389090682119</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051975</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2004,22 +2004,22 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>152.978156738743</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2052,10 +2052,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>40.71096332175367</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
@@ -2098,7 +2098,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H20" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I20" t="n">
         <v>81.77913505274077</v>
@@ -2241,19 +2241,19 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>83.62275566270739</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2289,10 +2289,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>115.5269768002178</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
@@ -2304,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2332,13 +2332,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896903</v>
       </c>
       <c r="H23" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2481,16 +2481,16 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>15.5106788513068</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2526,16 +2526,16 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>118.4898845065119</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2572,10 +2572,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
-        <v>305.2872491113166</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527396</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>115.5269768002178</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
     </row>
     <row r="29">
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>115.5269768002178</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>221.5475610583892</v>
@@ -3189,19 +3189,19 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3243,19 +3243,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>116.9087606441048</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3283,10 +3283,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H35" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3423,19 +3423,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>3.347695664762908</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>115.5269768002176</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3480,7 +3480,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3663,13 +3663,13 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3711,25 +3711,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>24.1470067486599</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>190.1791179615104</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>149.0799667719507</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3912,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>115.5269768002176</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3957,7 +3957,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4140,7 +4140,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4149,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>115.5269768002176</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1975.94687169884</v>
+        <v>2310.5492509541</v>
       </c>
       <c r="C2" t="n">
-        <v>1606.984354758428</v>
+        <v>1941.586734013689</v>
       </c>
       <c r="D2" t="n">
-        <v>1248.718656151678</v>
+        <v>1583.321035406938</v>
       </c>
       <c r="E2" t="n">
-        <v>862.9304035534335</v>
+        <v>1197.532782808694</v>
       </c>
       <c r="F2" t="n">
-        <v>451.9444987638259</v>
+        <v>786.5468780190865</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>368.5830699172734</v>
       </c>
       <c r="H2" t="n">
         <v>53.94298182036445</v>
@@ -4342,7 +4342,7 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4366,16 +4366,16 @@
         <v>2697.149091018222</v>
       </c>
       <c r="V2" t="n">
-        <v>2366.086203674652</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W2" t="n">
-        <v>2366.086203674652</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X2" t="n">
-        <v>2366.086203674652</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Y2" t="n">
-        <v>1975.94687169884</v>
+        <v>2697.149091018222</v>
       </c>
     </row>
     <row r="3">
@@ -4385,19 +4385,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G3" t="n">
         <v>221.4284102424006</v>
@@ -4433,19 +4433,19 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>369.8327295799424</v>
+        <v>63.25696827225937</v>
       </c>
       <c r="C4" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>550.5654064942404</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S4" t="n">
-        <v>369.8327295799424</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T4" t="n">
-        <v>369.8327295799424</v>
+        <v>352.67413830922</v>
       </c>
       <c r="U4" t="n">
-        <v>369.8327295799424</v>
+        <v>352.67413830922</v>
       </c>
       <c r="V4" t="n">
-        <v>369.8327295799424</v>
+        <v>352.67413830922</v>
       </c>
       <c r="W4" t="n">
-        <v>369.8327295799424</v>
+        <v>63.25696827225937</v>
       </c>
       <c r="X4" t="n">
-        <v>369.8327295799424</v>
+        <v>63.25696827225937</v>
       </c>
       <c r="Y4" t="n">
-        <v>369.8327295799424</v>
+        <v>63.25696827225937</v>
       </c>
     </row>
     <row r="5">
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1591.868758816787</v>
+        <v>962.1597273639309</v>
       </c>
       <c r="C5" t="n">
-        <v>1222.906241876376</v>
+        <v>593.1972104235191</v>
       </c>
       <c r="D5" t="n">
-        <v>864.6405432696254</v>
+        <v>593.1972104235191</v>
       </c>
       <c r="E5" t="n">
-        <v>478.8522906713811</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177355</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4594,25 +4594,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018222</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="V5" t="n">
-        <v>2368.607930856721</v>
+        <v>1971.274048960885</v>
       </c>
       <c r="W5" t="n">
-        <v>2368.607930856721</v>
+        <v>1618.50539369077</v>
       </c>
       <c r="X5" t="n">
-        <v>2368.607930856721</v>
+        <v>1352.299059339743</v>
       </c>
       <c r="Y5" t="n">
-        <v>1978.468598880909</v>
+        <v>962.1597273639309</v>
       </c>
     </row>
     <row r="6">
@@ -4622,22 +4622,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4646,49 +4646,49 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4701,16 +4701,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="F7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064344</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="W7" t="n">
-        <v>684.3735766921516</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="X7" t="n">
-        <v>456.3840257941342</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="Y7" t="n">
-        <v>235.5914466506042</v>
+        <v>149.5382038240415</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1370.766673031379</v>
+        <v>1226.657559460833</v>
       </c>
       <c r="C8" t="n">
-        <v>1001.804156090968</v>
+        <v>857.6950425204218</v>
       </c>
       <c r="D8" t="n">
-        <v>643.5384574842171</v>
+        <v>857.6950425204218</v>
       </c>
       <c r="E8" t="n">
-        <v>643.5384574842171</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="F8" t="n">
-        <v>232.5525526946096</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G8" t="n">
-        <v>218.6291486332005</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
         <v>53.94298182036445</v>
@@ -4807,10 +4807,10 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4834,22 +4834,22 @@
         <v>2520.971603332393</v>
       </c>
       <c r="T8" t="n">
-        <v>2520.971603332393</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U8" t="n">
-        <v>2520.971603332393</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V8" t="n">
-        <v>2520.971603332393</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="W8" t="n">
-        <v>2520.971603332393</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="X8" t="n">
-        <v>2147.505845071313</v>
+        <v>1344.046505337896</v>
       </c>
       <c r="Y8" t="n">
-        <v>1757.366513095501</v>
+        <v>1226.657559460833</v>
       </c>
     </row>
     <row r="9">
@@ -4859,19 +4859,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
         <v>221.4284102424006</v>
@@ -4892,10 +4892,10 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
         <v>2188.831293537797</v>
@@ -4904,22 +4904,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4968,43 +4968,43 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>343.360151857325</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W10" t="n">
-        <v>502.7251118619119</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X10" t="n">
-        <v>274.7355609638946</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y10" t="n">
         <v>53.94298182036445</v>
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>1348.724621721112</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>1348.724621721112</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>990.4589231143618</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>604.6706705161175</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>193.6847657265099</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>193.6847657265099</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>193.6847657265099</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028583</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="J11" t="n">
-        <v>365.881333182379</v>
+        <v>262.6316941403561</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>666.098807160401</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1218.912065406599</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>1850.62987638991</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>2477.937544449755</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3025.098749216831</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>3454.413795556125</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207829</v>
+        <v>3699.589756331025</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014291</v>
+        <v>3699.589756331025</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>3543.374718827853</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>3328.574857095564</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.3578574653</v>
+        <v>3074.883153840715</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121729</v>
+        <v>2743.820266497144</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>2391.05161122703</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>2017.58585296595</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>1735.324461785234</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>987.4312590525782</v>
+        <v>987.4134795532265</v>
       </c>
       <c r="C12" t="n">
-        <v>812.9782297714512</v>
+        <v>812.9604502720995</v>
       </c>
       <c r="D12" t="n">
-        <v>664.0438201101999</v>
+        <v>664.0260406108482</v>
       </c>
       <c r="E12" t="n">
-        <v>504.8063651047445</v>
+        <v>504.7885856053927</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2540276322776</v>
       </c>
       <c r="G12" t="n">
-        <v>221.3451287358148</v>
+        <v>220.8126299914995</v>
       </c>
       <c r="H12" t="n">
-        <v>125.4002551675025</v>
+        <v>119.8966521363041</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028583</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="K12" t="n">
-        <v>549.5984374701559</v>
+        <v>316.63250314623</v>
       </c>
       <c r="L12" t="n">
-        <v>796.3635653766198</v>
+        <v>820.9940430123479</v>
       </c>
       <c r="M12" t="n">
-        <v>1564.731711769081</v>
+        <v>1461.539392479452</v>
       </c>
       <c r="N12" t="n">
-        <v>1894.594339433114</v>
+        <v>1660.196134132116</v>
       </c>
       <c r="O12" t="n">
-        <v>2174.134404651811</v>
+        <v>2209.632142884838</v>
       </c>
       <c r="P12" t="n">
-        <v>2379.15688543402</v>
+        <v>2633.599911365674</v>
       </c>
       <c r="Q12" t="n">
-        <v>2623.573505376138</v>
+        <v>2656.336852567651</v>
       </c>
       <c r="R12" t="n">
-        <v>2623.573505376138</v>
+        <v>2635.224952969837</v>
       </c>
       <c r="S12" t="n">
-        <v>2483.667400459913</v>
+        <v>2485.758163832472</v>
       </c>
       <c r="T12" t="n">
-        <v>2288.75278438369</v>
+        <v>2288.76886799256</v>
       </c>
       <c r="U12" t="n">
-        <v>2060.647860003077</v>
+        <v>2060.630080503725</v>
       </c>
       <c r="V12" t="n">
-        <v>1825.495751771334</v>
+        <v>1825.477972271983</v>
       </c>
       <c r="W12" t="n">
-        <v>1571.258395043133</v>
+        <v>1571.240615543781</v>
       </c>
       <c r="X12" t="n">
-        <v>1363.4068948376</v>
+        <v>1363.389115338248</v>
       </c>
       <c r="Y12" t="n">
-        <v>1155.646596072646</v>
+        <v>1155.628816573294</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>434.3285960683721</v>
+        <v>389.8179255524378</v>
       </c>
       <c r="C13" t="n">
-        <v>265.3924131404652</v>
+        <v>220.8817426245309</v>
       </c>
       <c r="D13" t="n">
-        <v>265.3924131404652</v>
+        <v>220.8817426245309</v>
       </c>
       <c r="E13" t="n">
-        <v>265.3924131404652</v>
+        <v>220.8817426245309</v>
       </c>
       <c r="F13" t="n">
-        <v>265.3924131404652</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028583</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028583</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028583</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241957</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688071</v>
+        <v>175.03972472223</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799362</v>
+        <v>359.872719623048</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471189</v>
+        <v>565.1423203422855</v>
       </c>
       <c r="N13" t="n">
-        <v>1049.608084974667</v>
+        <v>770.9656851783894</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980063</v>
+        <v>945.0605805669879</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1070.508157165603</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>848.2972798983279</v>
       </c>
       <c r="U13" t="n">
-        <v>1209.78763177146</v>
+        <v>848.2972798983279</v>
       </c>
       <c r="V13" t="n">
-        <v>955.1031435655735</v>
+        <v>848.2972798983279</v>
       </c>
       <c r="W13" t="n">
-        <v>665.685973528613</v>
+        <v>558.8801098613674</v>
       </c>
       <c r="X13" t="n">
-        <v>437.6964226305956</v>
+        <v>558.8801098613674</v>
       </c>
       <c r="Y13" t="n">
-        <v>434.3285960683721</v>
+        <v>558.8801098613674</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>1765.812403484685</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>1765.812403484685</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1407.546704877934</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1021.75845227969</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>610.7725474900825</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>193.68476572651</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>193.68476572651</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028583</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>262.6316941403563</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>666.098807160401</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1218.912065406599</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>1850.62987638991</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>2477.937544449755</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3025.098749216831</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>3454.413795556125</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207829</v>
+        <v>3699.589756331025</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014291</v>
+        <v>3699.589756331025</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231263</v>
+        <v>3543.374718827853</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141868</v>
+        <v>3328.574857095564</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>3074.883153840715</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>2882.186148991691</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>2529.417493721577</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>2155.951735460497</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>1765.812403484685</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>987.4312590525782</v>
+        <v>987.4134795532265</v>
       </c>
       <c r="C15" t="n">
-        <v>812.9782297714512</v>
+        <v>812.9604502720995</v>
       </c>
       <c r="D15" t="n">
-        <v>664.0438201101999</v>
+        <v>664.0260406108482</v>
       </c>
       <c r="E15" t="n">
-        <v>504.8063651047445</v>
+        <v>504.7885856053927</v>
       </c>
       <c r="F15" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2540276322776</v>
       </c>
       <c r="G15" t="n">
-        <v>221.3451287358148</v>
+        <v>220.8126299914996</v>
       </c>
       <c r="H15" t="n">
-        <v>125.4002551675025</v>
+        <v>119.8966521363041</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028583</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126481</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571608</v>
+        <v>141.599614789977</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636247</v>
+        <v>645.9611546560948</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643586</v>
+        <v>1286.506504123199</v>
       </c>
       <c r="N15" t="n">
-        <v>2032.925401907737</v>
+        <v>1485.163245775863</v>
       </c>
       <c r="O15" t="n">
-        <v>2312.465467126433</v>
+        <v>2001.655628026347</v>
       </c>
       <c r="P15" t="n">
-        <v>2517.487947908643</v>
+        <v>2425.623396507183</v>
       </c>
       <c r="Q15" t="n">
-        <v>2623.573505376138</v>
+        <v>2656.336852567651</v>
       </c>
       <c r="R15" t="n">
-        <v>2623.573505376138</v>
+        <v>2635.224952969837</v>
       </c>
       <c r="S15" t="n">
-        <v>2483.667400459913</v>
+        <v>2485.758163832472</v>
       </c>
       <c r="T15" t="n">
-        <v>2288.75278438369</v>
+        <v>2288.76886799256</v>
       </c>
       <c r="U15" t="n">
-        <v>2060.647860003077</v>
+        <v>2060.630080503725</v>
       </c>
       <c r="V15" t="n">
-        <v>1825.495751771334</v>
+        <v>1825.477972271983</v>
       </c>
       <c r="W15" t="n">
-        <v>1571.258395043133</v>
+        <v>1571.240615543781</v>
       </c>
       <c r="X15" t="n">
-        <v>1363.4068948376</v>
+        <v>1363.389115338248</v>
       </c>
       <c r="Y15" t="n">
-        <v>1155.646596072646</v>
+        <v>1155.628816573294</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>355.6416303362487</v>
+        <v>671.8109351927719</v>
       </c>
       <c r="C16" t="n">
-        <v>355.6416303362487</v>
+        <v>502.874752264865</v>
       </c>
       <c r="D16" t="n">
-        <v>355.6416303362487</v>
+        <v>352.7581128525293</v>
       </c>
       <c r="E16" t="n">
-        <v>355.6416303362487</v>
+        <v>352.7581128525293</v>
       </c>
       <c r="F16" t="n">
-        <v>208.7516828383384</v>
+        <v>352.7581128525293</v>
       </c>
       <c r="G16" t="n">
-        <v>208.7516828383384</v>
+        <v>352.7581128525293</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>198.5034697522943</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028583</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241957</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688071</v>
+        <v>175.03972472223</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799362</v>
+        <v>359.8727196230479</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471189</v>
+        <v>565.1423203422854</v>
       </c>
       <c r="N16" t="n">
-        <v>1049.608084974667</v>
+        <v>770.9656851783893</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980063</v>
+        <v>945.0605805669878</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585746</v>
+        <v>1070.508157165603</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557902</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473454</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="T16" t="n">
-        <v>1075.21084526296</v>
+        <v>853.4594000230117</v>
       </c>
       <c r="U16" t="n">
-        <v>1075.21084526296</v>
+        <v>853.4594000230117</v>
       </c>
       <c r="V16" t="n">
-        <v>1047.499844346979</v>
+        <v>853.4594000230117</v>
       </c>
       <c r="W16" t="n">
-        <v>758.0826743100185</v>
+        <v>853.4594000230117</v>
       </c>
       <c r="X16" t="n">
-        <v>758.0826743100185</v>
+        <v>853.4594000230117</v>
       </c>
       <c r="Y16" t="n">
-        <v>537.2900951664884</v>
+        <v>853.4594000230117</v>
       </c>
     </row>
     <row r="17">
@@ -5512,34 +5512,34 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
         <v>4726.561275231264</v>
@@ -5582,37 +5582,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G18" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H18" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126481</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571608</v>
+        <v>287.7778528277035</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636248</v>
+        <v>901.6749225845924</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643586</v>
+        <v>1670.043068977054</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.376451307619</v>
+        <v>1999.905696641087</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5649,40 +5649,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>879.2482765610114</v>
+        <v>720.4504516500526</v>
       </c>
       <c r="C19" t="n">
-        <v>710.3120936331045</v>
+        <v>565.9270610048577</v>
       </c>
       <c r="D19" t="n">
-        <v>560.1954542207687</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="E19" t="n">
-        <v>412.2823606383756</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F19" t="n">
-        <v>265.3924131404652</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028583</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5691,34 +5691,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1457.794085384414</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U19" t="n">
-        <v>1168.665446597972</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V19" t="n">
-        <v>1168.665446597972</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="W19" t="n">
-        <v>879.2482765610114</v>
+        <v>720.4504516500526</v>
       </c>
       <c r="X19" t="n">
-        <v>879.2482765610114</v>
+        <v>720.4504516500526</v>
       </c>
       <c r="Y19" t="n">
-        <v>879.2482765610114</v>
+        <v>720.4504516500526</v>
       </c>
     </row>
     <row r="20">
@@ -5734,34 +5734,34 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N20" t="n">
         <v>3183.709822619127</v>
@@ -5770,7 +5770,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
@@ -5831,25 +5831,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643586</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028584</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028584</v>
+        <v>496.7497906007063</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>496.7497906007063</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G22" t="n">
         <v>97.21709146028584</v>
@@ -5937,25 +5937,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1382.222354598086</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>1158.436939387592</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U22" t="n">
-        <v>869.3083006011506</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V22" t="n">
-        <v>614.6238123952637</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W22" t="n">
-        <v>325.2066423583032</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X22" t="n">
-        <v>97.21709146028584</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028584</v>
+        <v>665.6859735286132</v>
       </c>
     </row>
     <row r="23">
@@ -5968,70 +5968,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
         <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
         <v>2814.921224614724</v>
@@ -6056,37 +6056,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643586</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028584</v>
+        <v>557.8041243279824</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028584</v>
+        <v>557.8041243279824</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028584</v>
+        <v>407.6874849156467</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>259.7743913332536</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>112.8844438353432</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6174,25 +6174,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1379.229518531123</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U25" t="n">
-        <v>1090.100879744681</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V25" t="n">
-        <v>835.416391538794</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="W25" t="n">
-        <v>545.9992215018333</v>
+        <v>785.7936752259998</v>
       </c>
       <c r="X25" t="n">
-        <v>318.0096706038159</v>
+        <v>557.8041243279824</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028584</v>
+        <v>557.8041243279824</v>
       </c>
     </row>
     <row r="26">
@@ -6220,16 +6220,16 @@
         <v>488.1932370805458</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382245</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028583</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6305,22 +6305,22 @@
         <v>97.21709146028583</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126481</v>
+        <v>233.7852434110091</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571608</v>
+        <v>644.6755122555218</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636248</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643586</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P27" t="n">
         <v>2328.464088060424</v>
@@ -6411,22 +6411,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1382.222354598086</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>1158.436939387592</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U28" t="n">
-        <v>869.3083006011506</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V28" t="n">
-        <v>614.6238123952637</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W28" t="n">
-        <v>325.2066423583032</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028583</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y28" t="n">
         <v>97.21709146028583</v>
@@ -6442,7 +6442,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
         <v>1701.09316900344</v>
@@ -6454,10 +6454,10 @@
         <v>904.3190116155886</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
@@ -6469,13 +6469,13 @@
         <v>889.2841917514082</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
@@ -6496,16 +6496,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6542,25 +6542,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643586</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6648,25 +6648,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1382.222354598086</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T31" t="n">
-        <v>1158.436939387592</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U31" t="n">
-        <v>869.3083006011506</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V31" t="n">
-        <v>614.6238123952637</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W31" t="n">
-        <v>325.2066423583032</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X31" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y31" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201016</v>
       </c>
     </row>
     <row r="32">
@@ -6691,10 +6691,10 @@
         <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
@@ -6703,7 +6703,7 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6718,7 +6718,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
         <v>4801.62743720783</v>
@@ -6782,22 +6782,22 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643586</v>
+        <v>966.6932390011336</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>1771.104817265284</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>729.1316371486756</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="C34" t="n">
-        <v>560.1954542207687</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D34" t="n">
-        <v>560.1954542207687</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E34" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
         <v>97.21709146028584</v>
@@ -6891,19 +6891,19 @@
         <v>1075.21084526296</v>
       </c>
       <c r="U34" t="n">
-        <v>1075.21084526296</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V34" t="n">
-        <v>1075.21084526296</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W34" t="n">
-        <v>1075.21084526296</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X34" t="n">
-        <v>847.2212943649431</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="Y34" t="n">
-        <v>729.1316371486756</v>
+        <v>241.9805482336712</v>
       </c>
     </row>
     <row r="35">
@@ -6919,25 +6919,25 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
         <v>889.2841917514083</v>
@@ -7016,25 +7016,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256435</v>
+        <v>233.7852434110091</v>
       </c>
       <c r="K36" t="n">
-        <v>287.7778528277033</v>
+        <v>644.6755122555218</v>
       </c>
       <c r="L36" t="n">
-        <v>901.674922584592</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.043068977054</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N36" t="n">
-        <v>1999.905696641086</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O36" t="n">
-        <v>2331.418122136705</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P36" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7071,16 +7071,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>213.9110074201016</v>
+        <v>100.5986022327736</v>
       </c>
       <c r="C37" t="n">
-        <v>213.9110074201016</v>
+        <v>100.5986022327736</v>
       </c>
       <c r="D37" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
         <v>97.21709146028584</v>
@@ -7128,19 +7128,19 @@
         <v>1275.130855347408</v>
       </c>
       <c r="U37" t="n">
-        <v>986.0022165609664</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V37" t="n">
-        <v>731.3177283550796</v>
+        <v>1020.446367141521</v>
       </c>
       <c r="W37" t="n">
-        <v>441.900558318119</v>
+        <v>731.0291971045608</v>
       </c>
       <c r="X37" t="n">
-        <v>213.9110074201016</v>
+        <v>503.0396462065435</v>
       </c>
       <c r="Y37" t="n">
-        <v>213.9110074201016</v>
+        <v>282.2470670630133</v>
       </c>
     </row>
     <row r="38">
@@ -7156,40 +7156,40 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P38" t="n">
         <v>4454.632848899127</v>
@@ -7253,25 +7253,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643587</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7308,13 +7308,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>413.3055067228584</v>
+        <v>434.3285960683721</v>
       </c>
       <c r="C40" t="n">
-        <v>413.3055067228584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D40" t="n">
-        <v>413.3055067228584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E40" t="n">
         <v>265.3924131404652</v>
@@ -7359,25 +7359,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>1474.525354650165</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U40" t="n">
-        <v>1185.396715863723</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V40" t="n">
-        <v>930.7122276578364</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="W40" t="n">
-        <v>641.2950576208757</v>
+        <v>883.1107261099196</v>
       </c>
       <c r="X40" t="n">
-        <v>413.3055067228584</v>
+        <v>655.1211752119023</v>
       </c>
       <c r="Y40" t="n">
-        <v>413.3055067228584</v>
+        <v>434.3285960683721</v>
       </c>
     </row>
     <row r="41">
@@ -7387,7 +7387,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
         <v>2059.358867610191</v>
@@ -7396,25 +7396,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
@@ -7447,16 +7447,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="42">
@@ -7490,19 +7490,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>287.7778528277033</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L42" t="n">
-        <v>901.674922584592</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.043068977054</v>
+        <v>1427.741252113634</v>
       </c>
       <c r="N42" t="n">
-        <v>1999.905696641086</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O42" t="n">
         <v>2331.418122136705</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C43" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
         <v>97.21709146028584</v>
@@ -7605,16 +7605,16 @@
         <v>986.0022165609664</v>
       </c>
       <c r="V43" t="n">
-        <v>731.3177283550796</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="W43" t="n">
-        <v>441.900558318119</v>
+        <v>696.5850465240057</v>
       </c>
       <c r="X43" t="n">
-        <v>213.9110074201016</v>
+        <v>468.5954956259884</v>
       </c>
       <c r="Y43" t="n">
-        <v>213.9110074201016</v>
+        <v>247.8029164824583</v>
       </c>
     </row>
     <row r="44">
@@ -7651,10 +7651,10 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
@@ -7669,7 +7669,7 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
@@ -7727,25 +7727,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7788,13 +7788,13 @@
         <v>213.9110074201016</v>
       </c>
       <c r="D46" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
         <v>97.21709146028584</v>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951776</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,13 +8294,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050816</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8540,13 +8540,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>346.2692436516228</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783515</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8768,13 +8768,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>6.233205181928668</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>176.8008973295485</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
         <v>465.7050637499999</v>
@@ -8783,16 +8783,16 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>158.8724419039344</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445221</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9005,31 +9005,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>6.233205181928696</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>360.5859288704293</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>19.14409596997203</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445221</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9242,31 +9242,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>52.49733361305141</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9479,28 +9479,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>423.3376789165117</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>34.78428385445218</v>
@@ -9716,28 +9716,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>423.3376789165117</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>34.78428385445218</v>
@@ -9953,7 +9953,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>96.03744927814716</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
@@ -9971,7 +9971,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10117,7 +10117,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>417.6612145504507</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
         <v>449.5135334928325</v>
@@ -10190,28 +10190,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>34.78428385445218</v>
@@ -10430,7 +10430,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10439,16 +10439,16 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>283.6093329825495</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>34.78428385445218</v>
@@ -10664,31 +10664,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>96.03744927814714</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>52.49733361305249</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10901,28 +10901,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>34.78428385445217</v>
@@ -11138,22 +11138,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>297.2466435761025</v>
       </c>
       <c r="O42" t="n">
-        <v>52.49733361305249</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -11375,28 +11375,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>34.78428385445218</v>
@@ -22564,10 +22564,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>12.42908554841733</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22594,28 +22594,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22704,31 +22704,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>158.0259745112519</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22749,31 +22749,31 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -22783,25 +22783,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -22831,7 +22831,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -22840,7 +22840,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -22849,7 +22849,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>106.1868296709515</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -22941,31 +22941,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>50.78177823929093</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22986,31 +22986,31 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -23020,28 +23020,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23068,7 +23068,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -23083,13 +23083,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>270.0228822377615</v>
       </c>
     </row>
     <row r="9">
@@ -23178,31 +23178,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23223,31 +23223,31 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>130.3958356744437</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -23260,7 +23260,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23272,10 +23272,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23320,13 +23320,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>106.7991613871449</v>
       </c>
     </row>
     <row r="12">
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>12.460417716097</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23427,19 +23427,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>123.2665578794171</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>17.69584188176917</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23463,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>129.1731816677914</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>205.3658819001187</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>215.2505050554935</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23494,10 +23494,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23512,7 +23512,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23554,7 +23554,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>136.9822236696013</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23655,28 +23655,28 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>17.69584188176918</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23700,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>129.1731816677914</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>205.3658819001187</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>5.11049892343712</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V16" t="n">
-        <v>224.7037524170068</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23782,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>1.335820343228988e-12</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23892,22 +23892,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>14.26866435988487</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -23940,10 +23940,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>180.8365977366356</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24129,19 +24129,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>62.81120698386178</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
@@ -24177,10 +24177,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>82.39383318338545</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24220,7 +24220,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -24369,16 +24369,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>150.9828896120708</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
@@ -24414,16 +24414,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>103.0576765518774</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24460,10 +24460,10 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>1.165290086646564e-12</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24651,7 +24651,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>82.39383318338545</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>103.0576765518772</v>
       </c>
     </row>
     <row r="29">
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>64.3050033817197</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24888,7 +24888,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>82.39383318338545</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25077,19 +25077,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>23.93099889297636</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
         <v>148.9138283675361</v>
@@ -25131,19 +25131,19 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>101.67589270799</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25311,19 +25311,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>145.2677773534494</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>29.89407122271365</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>166.4935684633776</v>
@@ -25368,7 +25368,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25551,13 +25551,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25599,25 +25599,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>197.4005543097293</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>96.34388037508057</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>30.75201340998657</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25800,7 +25800,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>50.96659166315999</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
         <v>148.9138283675361</v>
@@ -25845,7 +25845,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26028,7 +26028,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>33.08849621799476</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26037,7 +26037,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>50.96659166315999</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
         <v>148.9138283675361</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1002965.942907744</v>
+        <v>711682.083108422</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1002965.942907744</v>
+        <v>711682.083108422</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1002965.942907744</v>
+        <v>711682.083108422</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>952727.6193013648</v>
+        <v>826633.0799895162</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>952727.6193013648</v>
+        <v>826633.0799895163</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>952727.619301365</v>
+        <v>952727.6193013649</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>952727.6193013649</v>
+        <v>952727.619301365</v>
       </c>
     </row>
     <row r="10">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>952727.619301365</v>
+        <v>952727.6193013648</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>952727.6193013649</v>
+        <v>952727.619301365</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>952727.6193013649</v>
+        <v>952727.619301365</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>952727.6193013649</v>
+        <v>952727.619301365</v>
       </c>
     </row>
   </sheetData>
@@ -26313,28 +26313,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>451572.973425356</v>
+        <v>318067.8710173334</v>
       </c>
       <c r="C2" t="n">
-        <v>451572.973425356</v>
+        <v>318067.8710173334</v>
       </c>
       <c r="D2" t="n">
-        <v>451572.9734253559</v>
+        <v>318067.8710173334</v>
       </c>
       <c r="E2" t="n">
+        <v>371509.2212626559</v>
+      </c>
+      <c r="F2" t="n">
+        <v>371509.2212626559</v>
+      </c>
+      <c r="G2" t="n">
+        <v>430131.9657114798</v>
+      </c>
+      <c r="H2" t="n">
         <v>430131.9657114797</v>
       </c>
-      <c r="F2" t="n">
-        <v>430131.9657114798</v>
-      </c>
-      <c r="G2" t="n">
-        <v>430131.9657114797</v>
-      </c>
-      <c r="H2" t="n">
-        <v>430131.9657114798</v>
-      </c>
       <c r="I2" t="n">
-        <v>430131.9657114798</v>
+        <v>430131.9657114795</v>
       </c>
       <c r="J2" t="n">
         <v>430131.9657114797</v>
@@ -26346,16 +26346,16 @@
         <v>430131.9657114798</v>
       </c>
       <c r="M2" t="n">
-        <v>430131.9657114797</v>
+        <v>430131.9657114798</v>
       </c>
       <c r="N2" t="n">
         <v>430131.9657114797</v>
       </c>
       <c r="O2" t="n">
+        <v>430131.9657114796</v>
+      </c>
+      <c r="P2" t="n">
         <v>430131.9657114797</v>
-      </c>
-      <c r="P2" t="n">
-        <v>430131.9657114798</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768959</v>
+        <v>248146.7686188427</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>263762.8892659107</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>62453.05588965292</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>69864.88484991129</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>156774.9582512226</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="C4" t="n">
-        <v>156774.9582512226</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="D4" t="n">
-        <v>156774.9582512226</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="E4" t="n">
-        <v>15045.6696214391</v>
+        <v>16707.03278084644</v>
       </c>
       <c r="F4" t="n">
-        <v>15045.6696214391</v>
+        <v>16707.03278084644</v>
       </c>
       <c r="G4" t="n">
         <v>15045.6696214391</v>
@@ -26478,19 +26478,19 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871661</v>
+        <v>69171.54328360136</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871661</v>
+        <v>69171.54328360136</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871661</v>
@@ -26502,7 +26502,7 @@
         <v>91987.32594871662</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="N5" t="n">
         <v>91987.32594871664</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-378028.9421038206</v>
+        <v>-373594.8552048657</v>
       </c>
       <c r="C6" t="n">
-        <v>211938.937110724</v>
+        <v>216373.0240096788</v>
       </c>
       <c r="D6" t="n">
-        <v>211938.9371107238</v>
+        <v>216373.0240096787</v>
       </c>
       <c r="E6" t="n">
-        <v>-203035.6575952936</v>
+        <v>37119.95043317133</v>
       </c>
       <c r="F6" t="n">
-        <v>322124.3788816024</v>
+        <v>285266.7190520139</v>
       </c>
       <c r="G6" t="n">
-        <v>322124.3788816022</v>
+        <v>59238.6217494412</v>
       </c>
       <c r="H6" t="n">
-        <v>322124.3788816024</v>
+        <v>323001.511015352</v>
       </c>
       <c r="I6" t="n">
-        <v>322124.3788816024</v>
+        <v>323001.5110153517</v>
       </c>
       <c r="J6" t="n">
-        <v>145701.1596890095</v>
+        <v>146578.2918227589</v>
       </c>
       <c r="K6" t="n">
-        <v>322124.3788816023</v>
+        <v>323001.5110153518</v>
       </c>
       <c r="L6" t="n">
-        <v>322124.3788816024</v>
+        <v>323001.5110153519</v>
       </c>
       <c r="M6" t="n">
-        <v>187323.3636477652</v>
+        <v>260548.455125699</v>
       </c>
       <c r="N6" t="n">
-        <v>322124.3788816023</v>
+        <v>323001.5110153518</v>
       </c>
       <c r="O6" t="n">
-        <v>322124.3788816023</v>
+        <v>253136.6261654405</v>
       </c>
       <c r="P6" t="n">
-        <v>322124.3788816024</v>
+        <v>323001.5110153518</v>
       </c>
     </row>
   </sheetData>
@@ -26737,22 +26737,22 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>377.7436642170866</v>
+      </c>
+      <c r="C3" t="n">
+        <v>377.7436642170866</v>
+      </c>
+      <c r="D3" t="n">
         <v>377.7436642170867</v>
       </c>
-      <c r="C3" t="n">
-        <v>377.7436642170867</v>
-      </c>
-      <c r="D3" t="n">
-        <v>377.7436642170866</v>
-      </c>
       <c r="E3" t="n">
-        <v>830.3824054541</v>
+        <v>593.4761003380636</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541</v>
+        <v>593.4761003380635</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="H3" t="n">
         <v>830.3824054541002</v>
@@ -26770,7 +26770,7 @@
         <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
         <v>830.3824054541003</v>
@@ -26798,10 +26798,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>1215.213643253573</v>
+        <v>924.8974390827563</v>
       </c>
       <c r="F4" t="n">
-        <v>1215.213643253573</v>
+        <v>924.8974390827563</v>
       </c>
       <c r="G4" t="n">
         <v>1215.213643253573</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,13 +26968,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370133</v>
+        <v>215.7324361209769</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>236.9063051160371</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27020,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990173</v>
+        <v>250.6101663282006</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>290.3162041708171</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,13 +27044,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990173</v>
+        <v>250.6101663282006</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>290.3162041708171</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990173</v>
+        <v>250.6101663282006</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>290.3162041708171</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27393,13 +27393,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>19.7626682467681</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,25 +27426,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27536,16 +27536,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27554,13 +27554,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27587,25 +27587,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>33.22018880486391</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27630,13 +27630,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,25 +27663,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>2.496509910248449</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27776,28 +27776,28 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,25 +27818,25 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>243.205144897451</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27861,19 +27861,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>160.8834676196495</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,22 +27900,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28010,31 +28010,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,25 +28055,25 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>63.37316471551392</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31521,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31548,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31697,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>2.385833569198244</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444943</v>
+        <v>24.43391804055152</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>91.97984867651539</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961203</v>
+        <v>202.4946418937396</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041487</v>
+        <v>303.4869768779013</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304438</v>
+        <v>376.5024309712522</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565517</v>
+        <v>418.9314987074814</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927184</v>
+        <v>425.710248335966</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540884</v>
+        <v>401.9861157822509</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946991</v>
+        <v>343.0858495426692</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647495</v>
+        <v>257.643184845757</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446477</v>
+        <v>149.8691179411493</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104647</v>
+        <v>54.36718245810503</v>
       </c>
       <c r="T11" t="n">
-        <v>14.61306122562943</v>
+        <v>10.44398644916532</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.1908666855358595</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.276533498840363</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386725</v>
+        <v>12.32862615985298</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127062</v>
+        <v>43.9508244118283</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>120.604421484738</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622981</v>
+        <v>206.1321659070423</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358983</v>
+        <v>277.1701353512815</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724844</v>
+        <v>323.4444746842446</v>
       </c>
       <c r="N12" t="n">
-        <v>464.536285481346</v>
+        <v>332.0050874900645</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855524</v>
+        <v>303.7197925947069</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458548</v>
+        <v>243.7619099671568</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710956</v>
+        <v>162.9483813607453</v>
       </c>
       <c r="R12" t="n">
-        <v>110.8952201095117</v>
+        <v>79.25705355080784</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677463</v>
+        <v>23.71104985784621</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361487</v>
+        <v>5.145325813308304</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.0839824670289713</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081164</v>
+        <v>1.070202803888311</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990345</v>
+        <v>9.515075838206993</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298628</v>
+        <v>32.18391704784123</v>
       </c>
       <c r="J13" t="n">
-        <v>105.8669502822383</v>
+        <v>75.66333823490361</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557933</v>
+        <v>124.3381075790238</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196123</v>
+        <v>159.109969588995</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171318</v>
+        <v>167.7591540676923</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>163.7702163441087</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065631</v>
+        <v>151.2683017714134</v>
       </c>
       <c r="P13" t="n">
-        <v>181.1050413469072</v>
+        <v>129.4361645720917</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235691</v>
+        <v>89.6148911510476</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337667</v>
+        <v>48.12020970937806</v>
       </c>
       <c r="S13" t="n">
-        <v>26.095788053369</v>
+        <v>18.65071613685356</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892243</v>
+        <v>4.572684707522783</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351812</v>
+        <v>0.05837469839390796</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>2.385833569198244</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444943</v>
+        <v>24.43391804055151</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>91.97984867651536</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961203</v>
+        <v>202.4946418937396</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041487</v>
+        <v>303.4869768779013</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304438</v>
+        <v>376.5024309712521</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565517</v>
+        <v>418.9314987074814</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927184</v>
+        <v>425.7102483359659</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540884</v>
+        <v>401.9861157822508</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946991</v>
+        <v>343.0858495426692</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647495</v>
+        <v>257.643184845757</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446477</v>
+        <v>149.8691179411493</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104647</v>
+        <v>54.36718245810503</v>
       </c>
       <c r="T14" t="n">
-        <v>14.61306122562943</v>
+        <v>10.44398644916532</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.1908666855358594</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.276533498840363</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386725</v>
+        <v>12.32862615985298</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127062</v>
+        <v>43.95082441182829</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>120.604421484738</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622981</v>
+        <v>206.1321659070423</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358983</v>
+        <v>277.1701353512815</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724844</v>
+        <v>323.4444746842445</v>
       </c>
       <c r="N15" t="n">
-        <v>464.536285481346</v>
+        <v>332.0050874900644</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855524</v>
+        <v>303.7197925947069</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458548</v>
+        <v>243.7619099671567</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710956</v>
+        <v>162.9483813607453</v>
       </c>
       <c r="R15" t="n">
-        <v>110.8952201095117</v>
+        <v>79.25705355080783</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677463</v>
+        <v>23.7110498578462</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361487</v>
+        <v>5.145325813308303</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.08398246702897129</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081164</v>
+        <v>1.070202803888311</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990345</v>
+        <v>9.515075838206991</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298628</v>
+        <v>32.18391704784122</v>
       </c>
       <c r="J16" t="n">
-        <v>105.8669502822383</v>
+        <v>75.66333823490359</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557933</v>
+        <v>124.3381075790238</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196123</v>
+        <v>159.1099695889949</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171318</v>
+        <v>167.7591540676922</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>163.7702163441087</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065631</v>
+        <v>151.2683017714133</v>
       </c>
       <c r="P16" t="n">
-        <v>181.1050413469072</v>
+        <v>129.4361645720917</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235691</v>
+        <v>89.61489115104759</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337667</v>
+        <v>48.12020970937805</v>
       </c>
       <c r="S16" t="n">
-        <v>26.095788053369</v>
+        <v>18.65071613685356</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892243</v>
+        <v>4.572684707522782</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351812</v>
+        <v>0.05837469839390794</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,46 +32305,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H19" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P19" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -33648,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33666,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33675,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33684,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33736,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33745,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33763,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33827,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33839,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730626</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730081</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35260,16 +35260,16 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>410.0055067279167</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262118</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415078</v>
+        <v>190.5453525391271</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303329</v>
+        <v>407.5425384040855</v>
       </c>
       <c r="L11" t="n">
-        <v>708.691066710907</v>
+        <v>558.3972305517154</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221115</v>
+        <v>638.0987989730412</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081116</v>
+        <v>633.6441091513592</v>
       </c>
       <c r="O11" t="n">
-        <v>713.154607095147</v>
+        <v>552.6880856233096</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109121</v>
+        <v>433.6515619588823</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502047</v>
+        <v>247.6524856312122</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349802</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490663</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005177</v>
+        <v>245.0916242622318</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560242</v>
+        <v>509.4561008748665</v>
       </c>
       <c r="M12" t="n">
-        <v>776.129440800466</v>
+        <v>647.0155045122262</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980127</v>
+        <v>200.6633754067311</v>
       </c>
       <c r="O12" t="n">
-        <v>282.363702241108</v>
+        <v>554.9858674269919</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315245</v>
+        <v>428.2502711927636</v>
       </c>
       <c r="Q12" t="n">
-        <v>246.8854746890084</v>
+        <v>22.9666072747238</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556549</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>102.0686157531409</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799285</v>
+        <v>186.6999948493111</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789724</v>
+        <v>207.3430310295329</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056036</v>
+        <v>207.9023887233373</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>175.8534296854531</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>126.7147238369852</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.2256999718747</v>
+        <v>3.452847899353216</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415078</v>
+        <v>190.5453525391271</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303329</v>
+        <v>407.5425384040855</v>
       </c>
       <c r="L14" t="n">
-        <v>708.691066710907</v>
+        <v>558.3972305517153</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221115</v>
+        <v>638.0987989730411</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081116</v>
+        <v>633.6441091513591</v>
       </c>
       <c r="O14" t="n">
-        <v>713.154607095147</v>
+        <v>552.6880856233095</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109121</v>
+        <v>433.6515619588823</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502047</v>
+        <v>247.6524856312122</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349802</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005177</v>
+        <v>68.29072693268333</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560242</v>
+        <v>509.4561008748665</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504661</v>
+        <v>647.0155045122261</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415662</v>
+        <v>200.6633754067311</v>
       </c>
       <c r="O15" t="n">
-        <v>282.363702241108</v>
+        <v>521.7094770206917</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315245</v>
+        <v>428.2502711927636</v>
       </c>
       <c r="Q15" t="n">
-        <v>107.1571287550461</v>
+        <v>233.0438950105729</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556549</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>102.0686157531409</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799285</v>
+        <v>186.6999948493111</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789724</v>
+        <v>207.3430310295328</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056036</v>
+        <v>207.9023887233373</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>175.853429685453</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>126.7147238369852</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.2256999718747</v>
+        <v>3.452847899353202</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594837</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004663</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>334.8610358541597</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507419</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L21" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O21" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L24" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O24" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36673,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>137.9476282330538</v>
       </c>
       <c r="K27" t="n">
         <v>415.0406756005178</v>
@@ -36691,7 +36691,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36837,7 +36837,7 @@
         <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109074</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
         <v>805.3296502221116</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L30" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504662</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O30" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37150,7 +37150,7 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L33" t="n">
         <v>249.2577049560243</v>
@@ -37159,16 +37159,16 @@
         <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>565.9730352236576</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37308,13 +37308,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490668</v>
+        <v>137.9476282330538</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>334.8610358541607</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37478,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O39" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37858,22 +37858,22 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L42" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
         <v>776.1294408004662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>630.4412169741155</v>
       </c>
       <c r="O42" t="n">
-        <v>334.8610358541607</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
         <v>207.0934149315247</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L45" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O45" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
